--- a/case1.xlsx
+++ b/case1.xlsx
@@ -8,135 +8,257 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroGrids\Documents\Ofun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EF1F02-A1C0-4101-824A-2B752A30866C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6D74EC-D71C-4423-9B5A-E8C332675753}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" activeTab="1" xr2:uid="{112FC91A-F7FB-432D-9E1C-6D1B5AB132A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" activeTab="3" xr2:uid="{112FC91A-F7FB-432D-9E1C-6D1B5AB132A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Case1a" sheetId="1" r:id="rId1"/>
     <sheet name="Case1b" sheetId="3" r:id="rId2"/>
+    <sheet name="Case1c" sheetId="4" r:id="rId3"/>
+    <sheet name="Case1d" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Case1a!$B$10:$G$15</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Case1b!$B$10:$G$15</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Case1c!$L$35:$T$43,Case1c!$R$33:$T$33</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Case1d!$L$35:$T$43,Case1d!$R$33:$T$33,Case1d!$E$2:$E$7</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Case1a!$A$23:$A$28</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Case1b!$A$23:$A$28</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Case1c!$A$19:$A$27</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Case1d!$A$19:$A$27</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">Case1a!$G$16</definedName>
     <definedName name="solver_lhs10" localSheetId="1" hidden="1">Case1b!$H$15</definedName>
+    <definedName name="solver_lhs10" localSheetId="2" hidden="1">Case1c!$U$35:$U$40</definedName>
+    <definedName name="solver_lhs10" localSheetId="3" hidden="1">Case1d!$U$33</definedName>
     <definedName name="solver_lhs11" localSheetId="0" hidden="1">Case1a!$H$15</definedName>
     <definedName name="solver_lhs11" localSheetId="1" hidden="1">Case1b!$H$15</definedName>
+    <definedName name="solver_lhs11" localSheetId="2" hidden="1">Case1c!$U$41:$U$43</definedName>
+    <definedName name="solver_lhs11" localSheetId="3" hidden="1">Case1d!$U$41:$U$43</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Case1a!$B$10:$G$15</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Case1b!$B$10:$G$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Case1c!$C$30</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Case1d!$C$30:$C$44</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Case1a!$B$16</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">Case1b!$B$16:$C$16</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Case1c!$L$35:$T$43</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Case1d!$E$2:$E$7</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Case1a!$C$16:$F$16</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">Case1b!$C$30:$C$35</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">Case1c!$L$44:$O$44</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Case1d!$L$35:$T$43</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Case1a!$C$30:$C$35</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">Case1b!$D$16:$F$16</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">Case1c!$P$44:$Q$44</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">Case1d!$L$44:$Q$44</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">Case1a!$G$10</definedName>
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">Case1b!$G$16</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">Case1c!$R$33:$T$33</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">Case1d!$R$33:$T$33</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">Case1a!$G$16</definedName>
     <definedName name="solver_lhs7" localSheetId="1" hidden="1">Case1b!$G$30</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">Case1c!$R$44:$T$44</definedName>
+    <definedName name="solver_lhs7" localSheetId="3" hidden="1">Case1d!$R$44:$T$44</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">Case1a!$H$10:$H$14</definedName>
     <definedName name="solver_lhs8" localSheetId="1" hidden="1">Case1b!$H$10:$H$14</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">Case1c!$R$48:$T$48</definedName>
+    <definedName name="solver_lhs8" localSheetId="3" hidden="1">Case1d!$R$6</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">Case1a!$H$15</definedName>
     <definedName name="solver_lhs9" localSheetId="1" hidden="1">Case1b!$H$15</definedName>
+    <definedName name="solver_lhs9" localSheetId="2" hidden="1">Case1c!$U$33</definedName>
+    <definedName name="solver_lhs9" localSheetId="3" hidden="1">Case1d!$R$6</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">9</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">9</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">11</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">10</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Case1a!$I$1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Case1b!$G$30</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Case1b!$N$1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Case1c!$R$1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Case1d!$R$1</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel10" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel10" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel11" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel11" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel11" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">5</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">5</definedName>
+    <definedName name="solver_rel6" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel9" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel9" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs10" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs10" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs10" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rhs11" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs11" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs11" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs11" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">binaire</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">binaire</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">binaire</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">Case1d!$L$50:$Q$50</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">Case1b!$N$6</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs6" localSheetId="3" hidden="1">binaire</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs7" localSheetId="1" hidden="1">Case1b!$N$8</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">Case1c!$R$32:$T$32</definedName>
+    <definedName name="solver_rhs7" localSheetId="3" hidden="1">Case1d!$R$32:$T$32</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs8" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">Case1c!$R$8</definedName>
+    <definedName name="solver_rhs8" localSheetId="3" hidden="1">Case1d!$R$5</definedName>
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs9" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs9" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs9" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -153,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="61">
   <si>
     <t>distance matrix</t>
   </si>
@@ -273,6 +395,69 @@
   </si>
   <si>
     <t>Condition départ-&gt;destination &lt;= Nv - Const</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>N points</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>Où je suis : S1</t>
+  </si>
+  <si>
+    <t>Où je vais:  S1</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Où je vais:  1</t>
+  </si>
+  <si>
+    <t>Où je suis : 1</t>
+  </si>
+  <si>
+    <t>activation voiture</t>
+  </si>
+  <si>
+    <t>1 - aj</t>
+  </si>
+  <si>
+    <t>sum aibij</t>
   </si>
 </sst>
 </file>
@@ -294,7 +479,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +522,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -350,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -359,11 +568,35 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -411,6 +644,104 @@
     <tableColumn id="1" xr3:uid="{7BB12CE3-74CF-436E-8A17-F1A5178B7ECC}" name="Coordonnées"/>
     <tableColumn id="2" xr3:uid="{415DC325-7992-41C2-B458-6FAE5A0E6D6E}" name="x"/>
     <tableColumn id="3" xr3:uid="{F0FBBDF7-9D25-443A-9CD7-865FC6601963}" name="y"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43277BFF-0245-4469-9CA5-75C0D84097BA}" name="Tableau22" displayName="Tableau22" ref="F1:O10" totalsRowShown="0">
+  <autoFilter ref="F1:O10" xr:uid="{4706B194-EB46-4EE1-B9C3-ED64E3DBE6C0}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{14688EF5-8275-4B93-899E-CEAF2EEE8845}" name="distance matrix"/>
+    <tableColumn id="2" xr3:uid="{CDC121EA-E7B2-43B3-B756-F7894E7E2A1B}" name="S1">
+      <calculatedColumnFormula>SQRT((C$2-C2)^2+(D$2-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{540F7FFB-D9F8-4AC8-901C-936701A5BB65}" name="S2">
+      <calculatedColumnFormula>SQRT((C$3-C2)^2+(D$3-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{439F6117-705F-4364-858C-FF856C173398}" name="S3">
+      <calculatedColumnFormula>SQRT((C$4-C2)^2+(D$4-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E432533C-A813-4CC9-BCE7-894891D33251}" name="S4">
+      <calculatedColumnFormula>SQRT((C$5-C2)^2+(D$5-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{BBB216F3-F863-4815-9975-8291E90562B1}" name="1">
+      <calculatedColumnFormula>SQRT((C$6-C2)^2+(D$6-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{04AF1A80-3A08-4309-B619-00461709794F}" name="2">
+      <calculatedColumnFormula>SQRT((C$7-C2)^2+(D$7-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{A4ECE921-FAD5-42E4-9E8A-CD14FF0225F6}" name="D1" dataDxfId="5">
+      <calculatedColumnFormula>SQRT((C$8-C2)^2+(D$8-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E4050388-FB48-477D-91CC-9E49185CCD01}" name="D2" dataDxfId="4">
+      <calculatedColumnFormula>SQRT((C$9-C2)^2+(D$9-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{891843E9-97CB-41ED-B395-57529484DF73}" name="D3" dataDxfId="3">
+      <calculatedColumnFormula>SQRT((C$10-C2)^2+(D$10-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2F7C2CDB-ACD4-4C59-B9D2-1C5DB18D37C0}" name="Tableau35" displayName="Tableau35" ref="B1:D10" totalsRowShown="0">
+  <autoFilter ref="B1:D10" xr:uid="{23FEA744-B7A0-4AB4-BA8E-3D1EC4BABB72}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5CF40F08-CFD0-4BF1-A429-CD3449146525}" name="Coordonnées"/>
+    <tableColumn id="2" xr3:uid="{31B106F7-E477-47CE-8961-9D097D8018E4}" name="x"/>
+    <tableColumn id="3" xr3:uid="{CEDF20E8-47B1-43CE-B1C4-2ACB302610A4}" name="y"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3D0D121D-20C4-4250-A7D3-489F79C8CD6F}" name="Tableau2210" displayName="Tableau2210" ref="F1:O10" totalsRowShown="0">
+  <autoFilter ref="F1:O10" xr:uid="{4706B194-EB46-4EE1-B9C3-ED64E3DBE6C0}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{3D5FB965-748A-4682-819A-7C021656DB4B}" name="distance matrix"/>
+    <tableColumn id="2" xr3:uid="{D2830664-1CF7-4092-83AA-C6F490C779B9}" name="1">
+      <calculatedColumnFormula>SQRT((C$2-C2)^2+(D$2-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{1D24240D-4ADC-4658-A9B7-E7FD30F8D0AF}" name="2">
+      <calculatedColumnFormula>SQRT((C$3-C2)^2+(D$3-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{44B63950-AB99-4904-9DFD-23624B841A4C}" name="3">
+      <calculatedColumnFormula>SQRT((C$4-C2)^2+(D$4-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{EB05B097-B756-41BD-AC4E-E4605B94E3B8}" name="4">
+      <calculatedColumnFormula>SQRT((C$5-C2)^2+(D$5-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{DAF7D4B3-A10A-4D91-B992-DF6CC17B4D43}" name="5">
+      <calculatedColumnFormula>SQRT((C$6-C2)^2+(D$6-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{134AADDC-B1B3-47FF-9DD5-16E844F4581A}" name="6">
+      <calculatedColumnFormula>SQRT((C$7-C2)^2+(D$7-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{2DFA2CA8-203E-4485-A929-F9DEDB87CA57}" name="D1" dataDxfId="2">
+      <calculatedColumnFormula>SQRT((C$8-C2)^2+(D$8-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{BE6BFF67-BE2B-46BF-A388-CBD6180BC5BB}" name="D2" dataDxfId="1">
+      <calculatedColumnFormula>SQRT((C$9-C2)^2+(D$9-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{D123EDFA-A0B6-4911-A939-D20DA17ECEF6}" name="D3" dataDxfId="0">
+      <calculatedColumnFormula>SQRT((C$10-C2)^2+(D$10-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{37EE6B2A-0C17-4839-891A-D7FA3A70B0BA}" name="Tableau3511" displayName="Tableau3511" ref="B1:D10" totalsRowShown="0">
+  <autoFilter ref="B1:D10" xr:uid="{23FEA744-B7A0-4AB4-BA8E-3D1EC4BABB72}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{604E823C-CC84-4E66-97EF-26BDACED2110}" name="Coordonnées"/>
+    <tableColumn id="2" xr3:uid="{CF5787E3-C900-40E1-A1DA-132471B3917B}" name="x"/>
+    <tableColumn id="3" xr3:uid="{4E8C623D-1EA9-43E1-8D35-1E441DA8E401}" name="y"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1276,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891FCA0B-77D4-458A-B238-39F87761B2B1}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1325,7 +1656,7 @@
       </c>
       <c r="N1" s="2">
         <f>SUMPRODUCT(G2:L7,B10:G15)</f>
-        <v>8.1925824035672523</v>
+        <v>9.3851648071345046</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1354,7 +1685,7 @@
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I7" si="2">SQRT((C$4-C2)^2+(D$4-D2)^2)</f>
-        <v>5.2201532544552753</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J7" si="3">SQRT((C$5-C2)^2+(D$5-D2)^2)</f>
@@ -1392,7 +1723,7 @@
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <f t="shared" si="3"/>
@@ -1415,21 +1746,21 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>5.2201532544552753</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
@@ -1437,15 +1768,15 @@
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>5.3851648071345037</v>
       </c>
       <c r="K4">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>5.0990195135927845</v>
       </c>
       <c r="L4">
         <f t="shared" si="5"/>
-        <v>2.5495097567963922</v>
+        <v>2.6925824035672519</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1471,7 +1802,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>5.3851648071345037</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
@@ -1515,7 +1846,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>5.0990195135927845</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
@@ -1559,7 +1890,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>2.5495097567963922</v>
+        <v>2.6925824035672519</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
@@ -1627,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1636,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
         <f>SUM(B10:G10)</f>
@@ -1660,13 +1991,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1690,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="6"/>
@@ -1720,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="6"/>
@@ -1744,13 +2075,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <f>SUM(B14:G14)</f>
@@ -1894,15 +2225,15 @@
       </c>
       <c r="B30">
         <f>D11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="6">
         <f>SUM(A30,B30)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <f>SUM(G10,G11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1926,11 +2257,11 @@
       </c>
       <c r="B32">
         <f>F11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1940,11 +2271,11 @@
       </c>
       <c r="B33">
         <f>E12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1964,15 +2295,2425 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <f>E14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35">
         <f>F13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D684BB79-7551-4D82-B7D1-7ED44D6CB47C}">
+  <dimension ref="A1:U48"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="12" max="12" width="11.7890625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="8">
+        <f>SUMPRODUCT(G2:O10,L35:T43)</f>
+        <v>78.065667847828223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <f>SQRT((C$2-C2)^2+(D$2-D2)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SQRT((C$3-C2)^2+(D$3-D2)^2)</f>
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="0">SQRT((C$4-C2)^2+(D$4-D2)^2)</f>
+        <v>41.231056256176608</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J7" si="1">SQRT((C$5-C2)^2+(D$5-D2)^2)</f>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K7" si="2">SQRT((C$6-C2)^2+(D$6-D2)^2)</f>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <f>SQRT((C$7-C2)^2+(D$7-D2)^2)</f>
+        <v>43.416586692184822</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M10" si="3">SQRT((C$8-C2)^2+(D$8-D2)^2)</f>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N10" si="4">SQRT((C$9-C2)^2+(D$9-D2)^2)</f>
+        <v>21.189620100417091</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O10" si="5">SQRT((C$10-C2)^2+(D$10-D2)^2)</f>
+        <v>39.293765408776999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="6">SQRT((C$2-C3)^2+(D$2-D3)^2)</f>
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="7">SQRT((C$3-C3)^2+(D$3-D3)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>29.732137494637012</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>30.463092423455635</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="2"/>
+        <v>12.165525060596439</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L7" si="8">SQRT((C$7-C3)^2+(D$7-D3)^2)</f>
+        <v>31.953090617340916</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="3"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="4"/>
+        <v>10.63014581273465</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="5"/>
+        <v>27.856776554368238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>-10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="6"/>
+        <v>41.231056256176608</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="7"/>
+        <v>29.732137494637012</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="8"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>30.083217912982647</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>20.223748416156685</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>-12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="6"/>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="7"/>
+        <v>30.463092423455635</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>42.379240200834182</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="8"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>30.675723300355934</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>20.615528128088304</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="7"/>
+        <v>12.165525060596439</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>42.379240200834182</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="8"/>
+        <v>43.965895873961216</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>11.704699910719626</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>21.931712199461309</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>39.849717690342551</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>-11</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="6"/>
+        <v>43.416586692184822</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="7"/>
+        <v>31.953090617340916</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>43.965895873961216</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>32.280024783137947</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>22.360679774997898</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7">
+        <f>IF(R5=R6,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="H8">
+        <f>SQRT((C$3-C8)^2+(D$3-D8)^2)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I8">
+        <f>SQRT((C$4-C8)^2+(D$4-D8)^2)</f>
+        <v>30.083217912982647</v>
+      </c>
+      <c r="J8">
+        <f>SQRT((C$5-C8)^2+(D$5-D8)^2)</f>
+        <v>30.675723300355934</v>
+      </c>
+      <c r="K8">
+        <f>SQRT((C$6-C8)^2+(D$6-D8)^2)</f>
+        <v>11.704699910719626</v>
+      </c>
+      <c r="L8">
+        <f>SQRT((C$7-C8)^2+(D$7-D8)^2)</f>
+        <v>32.280024783137947</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>10.295630140987001</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>28.160255680657446</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8">
+        <f>R6-R7</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>21.189620100417091</v>
+      </c>
+      <c r="H9">
+        <f>SQRT((C$3-C9)^2+(D$3-D9)^2)</f>
+        <v>10.63014581273465</v>
+      </c>
+      <c r="I9">
+        <f>SQRT((C$4-C9)^2+(D$4-D9)^2)</f>
+        <v>20.223748416156685</v>
+      </c>
+      <c r="J9">
+        <f>SQRT((C$5-C9)^2+(D$5-D9)^2)</f>
+        <v>20.615528128088304</v>
+      </c>
+      <c r="K9">
+        <f>SQRT((C$6-C9)^2+(D$6-D9)^2)</f>
+        <v>21.931712199461309</v>
+      </c>
+      <c r="L9">
+        <f>SQRT((C$7-C9)^2+(D$7-D9)^2)</f>
+        <v>22.360679774997898</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>10.295630140987001</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>18.248287590894659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>-10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <f>SQRT((C$2-C10)^2+(D$2-D10)^2)</f>
+        <v>39.293765408776999</v>
+      </c>
+      <c r="H10">
+        <f>SQRT((C$3-C10)^2+(D$3-D10)^2)</f>
+        <v>27.856776554368238</v>
+      </c>
+      <c r="I10">
+        <f>SQRT((C$4-C10)^2+(D$4-D10)^2)</f>
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <f>SQRT((C$5-C10)^2+(D$5-D10)^2)</f>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="K10">
+        <f>SQRT((C$6-C10)^2+(D$6-D10)^2)</f>
+        <v>39.849717690342551</v>
+      </c>
+      <c r="L10">
+        <f>SQRT((C$7-C10)^2+(D$7-D10)^2)</f>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>28.160255680657446</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>18.248287590894659</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <f>L35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <f>M36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <f>N37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <f>O38</f>
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <f>P39</f>
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <f>Q40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <f>R41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <f>S42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <f>T43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <f>P40</f>
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <f>Q39</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <f>SUM(A30,B30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="R32">
+        <f>R33*R$6</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f>S33*R$6</f>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f>T33*R$6</f>
+        <v>4</v>
+      </c>
+      <c r="U32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <f>SUM(R33:T33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" t="s">
+        <v>41</v>
+      </c>
+      <c r="N34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="K35" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="5">
+        <f>SUM(L35:T35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="K36" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>1</v>
+      </c>
+      <c r="U36" s="5">
+        <f t="shared" ref="U36:U38" si="9">SUM(L36:T36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="K37" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>1</v>
+      </c>
+      <c r="U37" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="K38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>1</v>
+      </c>
+      <c r="U39" s="3">
+        <f t="shared" ref="U36:U43" si="10">SUM(L39:T39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1</v>
+      </c>
+      <c r="U40" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="K41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="K42" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="K44" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" s="5">
+        <f>SUM(L35:L43)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <f t="shared" ref="M44:O44" si="11">SUM(M35:M43)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <f>SUM(P35:P43)</f>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="3">
+        <f>SUM(Q35:Q43)</f>
+        <v>1</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" ref="M44:T44" si="12">SUM(R35:R43)</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="R47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="R48">
+        <f>SUM(R35:R38)</f>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f>SUM(S35:S38)</f>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f>SUM(T35:T38)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC95D18-69E5-44F4-B219-1B407DEDC463}">
+  <dimension ref="A1:U53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="12" max="12" width="11.7890625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="8">
+        <f>SUMPRODUCT(G2:O10,L35:T43)</f>
+        <v>78.065667847828223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>SQRT((C$2-C2)^2+(D$2-D2)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SQRT((C$3-C2)^2+(D$3-D2)^2)</f>
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="0">SQRT((C$4-C2)^2+(D$4-D2)^2)</f>
+        <v>41.231056256176608</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J7" si="1">SQRT((C$5-C2)^2+(D$5-D2)^2)</f>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K7" si="2">SQRT((C$6-C2)^2+(D$6-D2)^2)</f>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <f>SQRT((C$7-C2)^2+(D$7-D2)^2)</f>
+        <v>43.416586692184822</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M10" si="3">SQRT((C$8-C2)^2+(D$8-D2)^2)</f>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N10" si="4">SQRT((C$9-C2)^2+(D$9-D2)^2)</f>
+        <v>21.189620100417091</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O10" si="5">SQRT((C$10-C2)^2+(D$10-D2)^2)</f>
+        <v>39.293765408776999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="6">SQRT((C$2-C3)^2+(D$2-D3)^2)</f>
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="7">SQRT((C$3-C3)^2+(D$3-D3)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>29.732137494637012</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>30.463092423455635</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="2"/>
+        <v>12.165525060596439</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L7" si="8">SQRT((C$7-C3)^2+(D$7-D3)^2)</f>
+        <v>31.953090617340916</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="3"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="4"/>
+        <v>10.63014581273465</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="5"/>
+        <v>27.856776554368238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>-10</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="6"/>
+        <v>41.231056256176608</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="7"/>
+        <v>29.732137494637012</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="8"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>30.083217912982647</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>20.223748416156685</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>-12</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="6"/>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="7"/>
+        <v>30.463092423455635</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>42.379240200834182</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="8"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>30.675723300355934</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>20.615528128088304</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="7"/>
+        <v>12.165525060596439</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>42.379240200834182</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="8"/>
+        <v>43.965895873961216</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>11.704699910719626</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>21.931712199461309</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>39.849717690342551</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="9">
+        <f>SUM(E2:E7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>-11</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="6"/>
+        <v>43.416586692184822</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="7"/>
+        <v>31.953090617340916</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>43.965895873961216</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>32.280024783137947</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>22.360679774997898</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7">
+        <f>IF(R5=R6,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="H8">
+        <f>SQRT((C$3-C8)^2+(D$3-D8)^2)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I8">
+        <f>SQRT((C$4-C8)^2+(D$4-D8)^2)</f>
+        <v>30.083217912982647</v>
+      </c>
+      <c r="J8">
+        <f>SQRT((C$5-C8)^2+(D$5-D8)^2)</f>
+        <v>30.675723300355934</v>
+      </c>
+      <c r="K8">
+        <f>SQRT((C$6-C8)^2+(D$6-D8)^2)</f>
+        <v>11.704699910719626</v>
+      </c>
+      <c r="L8">
+        <f>SQRT((C$7-C8)^2+(D$7-D8)^2)</f>
+        <v>32.280024783137947</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>10.295630140987001</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>28.160255680657446</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8">
+        <f>R6-R7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>21.189620100417091</v>
+      </c>
+      <c r="H9">
+        <f>SQRT((C$3-C9)^2+(D$3-D9)^2)</f>
+        <v>10.63014581273465</v>
+      </c>
+      <c r="I9">
+        <f>SQRT((C$4-C9)^2+(D$4-D9)^2)</f>
+        <v>20.223748416156685</v>
+      </c>
+      <c r="J9">
+        <f>SQRT((C$5-C9)^2+(D$5-D9)^2)</f>
+        <v>20.615528128088304</v>
+      </c>
+      <c r="K9">
+        <f>SQRT((C$6-C9)^2+(D$6-D9)^2)</f>
+        <v>21.931712199461309</v>
+      </c>
+      <c r="L9">
+        <f>SQRT((C$7-C9)^2+(D$7-D9)^2)</f>
+        <v>22.360679774997898</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>10.295630140987001</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>18.248287590894659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>-10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <f>SQRT((C$2-C10)^2+(D$2-D10)^2)</f>
+        <v>39.293765408776999</v>
+      </c>
+      <c r="H10">
+        <f>SQRT((C$3-C10)^2+(D$3-D10)^2)</f>
+        <v>27.856776554368238</v>
+      </c>
+      <c r="I10">
+        <f>SQRT((C$4-C10)^2+(D$4-D10)^2)</f>
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <f>SQRT((C$5-C10)^2+(D$5-D10)^2)</f>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="K10">
+        <f>SQRT((C$6-C10)^2+(D$6-D10)^2)</f>
+        <v>39.849717690342551</v>
+      </c>
+      <c r="L10">
+        <f>SQRT((C$7-C10)^2+(D$7-D10)^2)</f>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>28.160255680657446</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>18.248287590894659</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <f>L35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <f>M36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <f>N37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <f>O38</f>
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <f>P39</f>
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <f>Q40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <f>R41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <f>S42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <f>T43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="10">
+        <f>L36</f>
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <f>M35</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <f>SUM(A30,B30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="10">
+        <f t="shared" ref="A31:A34" si="9">L37</f>
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <f>N35</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" ref="C31:C44" si="10">SUM(A31,B31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <f>O35</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f>R33*R$6</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f>S33*R$6</f>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f>T33*R$6</f>
+        <v>1</v>
+      </c>
+      <c r="U32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <f>P35</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <f>SUM(R33:T33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <f>Q35</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="11">
+        <f>M37</f>
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <f>N36</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <f t="shared" ref="U35:U43" si="11">SUM(L35:T35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="11">
+        <f t="shared" ref="A36:A38" si="12">M38</f>
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <f>O36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>1</v>
+      </c>
+      <c r="U36" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <f>P36</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>1</v>
+      </c>
+      <c r="U37" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <f>Q36</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="3">
+        <f>N38</f>
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <f>O37</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>1</v>
+      </c>
+      <c r="U39" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="3">
+        <f t="shared" ref="A40:A41" si="13">N39</f>
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <f>P37</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1</v>
+      </c>
+      <c r="U40" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <f>Q37</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="12">
+        <f>O39</f>
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <f>P38</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="12">
+        <f>O40</f>
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <f>Q38</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <f>P40</f>
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <f>Q39</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" ref="L44:O44" si="14">SUM(L35:L43)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <f>SUM(P35:P43)</f>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="3">
+        <f>SUM(Q35:Q43)</f>
+        <v>1</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" ref="R44:T44" si="15">SUM(R35:R43)</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="R47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="R48">
+        <f>SUM(R35:R38)</f>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f>SUM(S35:S38)</f>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f>SUM(T35:T38)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="11:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="K50" t="s">
+        <v>59</v>
+      </c>
+      <c r="L50">
+        <f>1 - E2</f>
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <f>1 - E3</f>
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <f>1 - E4</f>
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <f>1 - E5</f>
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <f>1-E6</f>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f>1-E7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="11:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="K53" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/case1.xlsx
+++ b/case1.xlsx
@@ -1,266 +1,693 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroGrids\Documents\Ofun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selim\Documents\Ofun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6D74EC-D71C-4423-9B5A-E8C332675753}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" activeTab="3" xr2:uid="{112FC91A-F7FB-432D-9E1C-6D1B5AB132A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8775" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Case1a" sheetId="1" r:id="rId1"/>
     <sheet name="Case1b" sheetId="3" r:id="rId2"/>
     <sheet name="Case1c" sheetId="4" r:id="rId3"/>
     <sheet name="Case1d" sheetId="6" r:id="rId4"/>
+    <sheet name="Case1e" sheetId="8" r:id="rId5"/>
+    <sheet name="Case1f" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="coin_cuttype" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="coin_dualtol" localSheetId="5" hidden="1">0.0000001</definedName>
+    <definedName name="coin_heurs" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="coin_integerpresolve" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="coin_presolve1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="coin_primaltol" localSheetId="5" hidden="1">0.0000001</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Case1a!$B$10:$G$15</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Case1b!$B$10:$G$15</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Case1c!$L$35:$T$43,Case1c!$R$33:$T$33</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">Case1d!$L$35:$T$43,Case1d!$R$33:$T$33,Case1d!$E$2:$E$7</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Case1e!$L$22:$Q$22,Case1e!$R$33:$T$33,Case1e!$L$35:$T$43,Case1e!$E$2:$E$7</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">Case1f!$L$22:$Q$22,Case1f!$R$33:$T$33,Case1f!$L$35:$T$43,Case1f!$E$2:$E$7,Case1f!$U$4,Case1f!$R$56:$T$61</definedName>
+    <definedName name="solver_adj_ob" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_adj_ob1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_adj1" localSheetId="5" hidden="1">Case1f!$T$23</definedName>
+    <definedName name="solver_cha" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc1" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc10" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc11" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc12" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc13" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc14" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc15" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc16" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc17" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc18" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc19" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc2" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc20" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc21" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc22" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc23" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc24" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc25" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc26" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc3" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc4" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc5" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc6" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc7" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc8" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc9" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chn" localSheetId="5" hidden="1">4</definedName>
+    <definedName name="solver_chp1" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp10" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp11" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp12" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp13" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp14" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp15" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp16" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp17" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp18" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp19" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp2" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp20" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp21" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp22" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp23" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp24" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp25" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp26" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp3" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp4" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp5" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp6" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp7" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp8" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp9" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_cht" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_cir1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir10" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir11" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir12" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir13" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir14" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir15" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir16" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir17" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir18" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir19" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir2" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir20" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir21" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir22" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir23" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir24" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir25" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir26" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir3" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir4" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir5" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir6" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir7" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir8" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir9" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_con" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con1" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con10" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con11" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con12" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con13" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con14" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con15" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con16" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con17" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con18" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con19" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con2" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con20" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con21" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con22" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con23" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con24" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con25" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con26" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con3" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con4" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con5" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con6" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con7" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con8" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con9" localSheetId="5" hidden="1">" "</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_dia" localSheetId="5" hidden="1">5</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_iao" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_int" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_irs" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_ism" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_kiv" localSheetId="5" hidden="1">2E+30</definedName>
+    <definedName name="solver_lhs_ob1" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob10" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob11" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob12" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob13" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob14" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob15" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob16" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob17" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob18" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob19" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob2" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob20" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob21" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob22" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob23" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob24" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob25" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob26" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob3" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob4" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob5" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob6" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob7" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob8" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob9" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Case1a!$A$23:$A$28</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Case1b!$A$23:$A$28</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">Case1c!$A$19:$A$27</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Case1d!$A$19:$A$27</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Case1e!$A$19:$A$27</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">Case1f!$A$19:$A$27</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">Case1a!$G$16</definedName>
     <definedName name="solver_lhs10" localSheetId="1" hidden="1">Case1b!$H$15</definedName>
     <definedName name="solver_lhs10" localSheetId="2" hidden="1">Case1c!$U$35:$U$40</definedName>
-    <definedName name="solver_lhs10" localSheetId="3" hidden="1">Case1d!$U$33</definedName>
+    <definedName name="solver_lhs10" localSheetId="3" hidden="1">Case1d!$R$6</definedName>
+    <definedName name="solver_lhs10" localSheetId="4" hidden="1">Case1e!$R$44:$T$44</definedName>
+    <definedName name="solver_lhs10" localSheetId="5" hidden="1">Case1f!$R$56:$R$61</definedName>
     <definedName name="solver_lhs11" localSheetId="0" hidden="1">Case1a!$H$15</definedName>
     <definedName name="solver_lhs11" localSheetId="1" hidden="1">Case1b!$H$15</definedName>
     <definedName name="solver_lhs11" localSheetId="2" hidden="1">Case1c!$U$41:$U$43</definedName>
-    <definedName name="solver_lhs11" localSheetId="3" hidden="1">Case1d!$U$41:$U$43</definedName>
+    <definedName name="solver_lhs11" localSheetId="3" hidden="1">Case1d!$U$33</definedName>
+    <definedName name="solver_lhs11" localSheetId="4" hidden="1">Case1e!$R$53:$T$53</definedName>
+    <definedName name="solver_lhs11" localSheetId="5" hidden="1">Case1f!$R$56:$T$61</definedName>
+    <definedName name="solver_lhs12" localSheetId="3" hidden="1">Case1d!$U$35:$U$40</definedName>
+    <definedName name="solver_lhs12" localSheetId="4" hidden="1">Case1e!$R$6</definedName>
+    <definedName name="solver_lhs12" localSheetId="5" hidden="1">Case1f!$R$56:$R$61</definedName>
+    <definedName name="solver_lhs13" localSheetId="3" hidden="1">Case1d!$U$41:$U$43</definedName>
+    <definedName name="solver_lhs13" localSheetId="4" hidden="1">Case1e!$R$6</definedName>
+    <definedName name="solver_lhs13" localSheetId="5" hidden="1">Case1f!$R$6</definedName>
+    <definedName name="solver_lhs14" localSheetId="4" hidden="1">Case1e!$U$33</definedName>
+    <definedName name="solver_lhs14" localSheetId="5" hidden="1">Case1f!$R$62:$T$62</definedName>
+    <definedName name="solver_lhs15" localSheetId="4" hidden="1">Case1e!$U$35:$U$40</definedName>
+    <definedName name="solver_lhs15" localSheetId="5" hidden="1">Case1f!$R$6</definedName>
+    <definedName name="solver_lhs16" localSheetId="4" hidden="1">Case1e!$U$41:$U$43</definedName>
+    <definedName name="solver_lhs16" localSheetId="5" hidden="1">Case1f!$S$56:$S$61</definedName>
+    <definedName name="solver_lhs17" localSheetId="4" hidden="1">Case1e!$X$35:$AC$40</definedName>
+    <definedName name="solver_lhs17" localSheetId="5" hidden="1">Case1f!$S$56:$S$61</definedName>
+    <definedName name="solver_lhs18" localSheetId="5" hidden="1">Case1f!$T$56:$T$61</definedName>
+    <definedName name="solver_lhs19" localSheetId="5" hidden="1">Case1f!$T$56:$T$61</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Case1a!$B$10:$G$15</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Case1b!$B$10:$G$15</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">Case1c!$C$30</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">Case1d!$C$30:$C$44</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Case1e!$C$30:$C$44</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">Case1f!$C$30:$C$44</definedName>
+    <definedName name="solver_lhs20" localSheetId="5" hidden="1">Case1f!$U$33</definedName>
+    <definedName name="solver_lhs21" localSheetId="5" hidden="1">Case1f!$U$35:$U$40</definedName>
+    <definedName name="solver_lhs22" localSheetId="5" hidden="1">Case1f!$U$4</definedName>
+    <definedName name="solver_lhs23" localSheetId="5" hidden="1">Case1f!$U$4</definedName>
+    <definedName name="solver_lhs24" localSheetId="5" hidden="1">Case1f!$U$41:$U$43</definedName>
+    <definedName name="solver_lhs25" localSheetId="5" hidden="1">Case1f!$U$5</definedName>
+    <definedName name="solver_lhs26" localSheetId="5" hidden="1">Case1f!$X$35:$AC$40</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Case1a!$B$16</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">Case1b!$B$16:$C$16</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">Case1c!$L$35:$T$43</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">Case1d!$E$2:$E$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Case1e!$E$2:$E$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">Case1f!$E$2:$E$7</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Case1a!$C$16:$F$16</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">Case1b!$C$30:$C$35</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">Case1c!$L$44:$O$44</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">Case1d!$L$35:$T$43</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">Case1e!$L$22:$Q$22</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">Case1f!$L$22:$Q$22</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Case1a!$C$30:$C$35</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">Case1b!$D$16:$F$16</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">Case1c!$P$44:$Q$44</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">Case1d!$L$44:$Q$44</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">Case1e!$L$22:$Q$22</definedName>
+    <definedName name="solver_lhs5" localSheetId="5" hidden="1">Case1f!$L$22:$Q$22</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">Case1a!$G$10</definedName>
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">Case1b!$G$16</definedName>
     <definedName name="solver_lhs6" localSheetId="2" hidden="1">Case1c!$R$33:$T$33</definedName>
     <definedName name="solver_lhs6" localSheetId="3" hidden="1">Case1d!$R$33:$T$33</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">Case1e!$L$22:$Q$22</definedName>
+    <definedName name="solver_lhs6" localSheetId="5" hidden="1">Case1f!$L$22:$Q$22</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">Case1a!$G$16</definedName>
     <definedName name="solver_lhs7" localSheetId="1" hidden="1">Case1b!$G$30</definedName>
     <definedName name="solver_lhs7" localSheetId="2" hidden="1">Case1c!$R$44:$T$44</definedName>
     <definedName name="solver_lhs7" localSheetId="3" hidden="1">Case1d!$R$44:$T$44</definedName>
+    <definedName name="solver_lhs7" localSheetId="4" hidden="1">Case1e!$L$35:$T$43</definedName>
+    <definedName name="solver_lhs7" localSheetId="5" hidden="1">Case1f!$L$35:$T$43</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">Case1a!$H$10:$H$14</definedName>
     <definedName name="solver_lhs8" localSheetId="1" hidden="1">Case1b!$H$10:$H$14</definedName>
     <definedName name="solver_lhs8" localSheetId="2" hidden="1">Case1c!$R$48:$T$48</definedName>
-    <definedName name="solver_lhs8" localSheetId="3" hidden="1">Case1d!$R$6</definedName>
+    <definedName name="solver_lhs8" localSheetId="3" hidden="1">Case1d!$R$53:$T$53</definedName>
+    <definedName name="solver_lhs8" localSheetId="4" hidden="1">Case1e!$L$44:$Q$44</definedName>
+    <definedName name="solver_lhs8" localSheetId="5" hidden="1">Case1f!$L$44:$Q$44</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">Case1a!$H$15</definedName>
     <definedName name="solver_lhs9" localSheetId="1" hidden="1">Case1b!$H$15</definedName>
     <definedName name="solver_lhs9" localSheetId="2" hidden="1">Case1c!$U$33</definedName>
     <definedName name="solver_lhs9" localSheetId="3" hidden="1">Case1d!$R$6</definedName>
+    <definedName name="solver_lhs9" localSheetId="4" hidden="1">Case1e!$R$33:$T$33</definedName>
+    <definedName name="solver_lhs9" localSheetId="5" hidden="1">Case1f!$R$33:$T$33</definedName>
+    <definedName name="solver_lin" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_mda" localSheetId="5" hidden="1">4</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mod" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_ntr" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_ntri" hidden="1">1000</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">9</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">9</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">11</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">10</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">13</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">17</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">26</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_obc" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_obp" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Case1a!$I$1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Case1b!$N$1</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Case1c!$R$1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">Case1d!$R$1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Case1e!$R$1</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">Case1f!$R$1</definedName>
+    <definedName name="solver_opt_ob" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_psi" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rdp" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco1" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco10" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco11" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco12" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco13" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco14" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco15" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco16" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco17" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco18" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco19" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco2" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco20" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco21" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco22" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco23" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco24" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco25" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco26" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco3" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco4" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco5" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco6" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco7" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco8" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco9" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel10" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel10" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel10" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel10" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel11" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel11" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel11" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel11" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel11" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel12" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel12" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel12" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel13" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel13" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel14" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel14" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel15" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel15" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel16" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel16" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel17" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel17" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel18" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel19" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel20" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel21" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel22" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel23" localSheetId="5" hidden="1">5</definedName>
+    <definedName name="solver_rel24" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel25" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel26" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">5</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">5</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_rel5" localSheetId="5" hidden="1">4</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_rel6" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_rel6" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="4" hidden="1">5</definedName>
+    <definedName name="solver_rel7" localSheetId="5" hidden="1">5</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel9" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="4" hidden="1">5</definedName>
+    <definedName name="solver_rel9" localSheetId="5" hidden="1">5</definedName>
+    <definedName name="solver_rep" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs10" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs10" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs10" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs10" localSheetId="4" hidden="1">Case1e!$R$32:$T$32</definedName>
+    <definedName name="solver_rhs10" localSheetId="5" hidden="1">Case1f!$E$2:$E$7</definedName>
     <definedName name="solver_rhs11" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs11" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs11" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rhs11" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs11" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs11" localSheetId="4" hidden="1">Case1e!$R$8</definedName>
+    <definedName name="solver_rhs11" localSheetId="5" hidden="1">Case1f!$V$56:$X$61</definedName>
+    <definedName name="solver_rhs12" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs12" localSheetId="4" hidden="1">Case1e!$R$5</definedName>
+    <definedName name="solver_rhs12" localSheetId="5" hidden="1">Case1f!$R$33</definedName>
+    <definedName name="solver_rhs13" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs13" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rhs13" localSheetId="5" hidden="1">Case1f!$R$5</definedName>
+    <definedName name="solver_rhs14" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rhs14" localSheetId="5" hidden="1">Case1f!$R$44:$T$44</definedName>
+    <definedName name="solver_rhs15" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rhs15" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rhs16" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs16" localSheetId="5" hidden="1">Case1f!$E$2:$E$7</definedName>
+    <definedName name="solver_rhs17" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs17" localSheetId="5" hidden="1">Case1f!$S$33</definedName>
+    <definedName name="solver_rhs18" localSheetId="5" hidden="1">Case1f!$E$2:$E$7</definedName>
+    <definedName name="solver_rhs19" localSheetId="5" hidden="1">Case1f!$T$33</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">binaire</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">binaire</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rhs20" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rhs21" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rhs22" localSheetId="5" hidden="1">Case1f!$U$2</definedName>
+    <definedName name="solver_rhs23" localSheetId="5" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs24" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rhs25" localSheetId="5" hidden="1">Case1f!$U$2</definedName>
+    <definedName name="solver_rhs26" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">binaire</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">binaire</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">Case1e!$R$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="5" hidden="1">Case1f!$R$5</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">Case1d!$L$50:$Q$50</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">entier</definedName>
+    <definedName name="solver_rhs5" localSheetId="5" hidden="1">entier</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">Case1b!$N$6</definedName>
     <definedName name="solver_rhs6" localSheetId="2" hidden="1">binaire</definedName>
     <definedName name="solver_rhs6" localSheetId="3" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs6" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rhs6" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs7" localSheetId="1" hidden="1">Case1b!$N$8</definedName>
     <definedName name="solver_rhs7" localSheetId="2" hidden="1">Case1c!$R$32:$T$32</definedName>
     <definedName name="solver_rhs7" localSheetId="3" hidden="1">Case1d!$R$32:$T$32</definedName>
+    <definedName name="solver_rhs7" localSheetId="4" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs7" localSheetId="5" hidden="1">binaire</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs8" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs8" localSheetId="2" hidden="1">Case1c!$R$8</definedName>
-    <definedName name="solver_rhs8" localSheetId="3" hidden="1">Case1d!$R$5</definedName>
+    <definedName name="solver_rhs8" localSheetId="3" hidden="1">Case1d!$R$8</definedName>
+    <definedName name="solver_rhs8" localSheetId="4" hidden="1">Case1e!$L$50:$Q$50</definedName>
+    <definedName name="solver_rhs8" localSheetId="5" hidden="1">Case1f!$L$50:$Q$50</definedName>
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs9" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs9" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rhs9" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs9" localSheetId="3" hidden="1">Case1d!$R$5</definedName>
+    <definedName name="solver_rhs9" localSheetId="4" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs9" localSheetId="5" hidden="1">binaire</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsmp" hidden="1">2</definedName>
+    <definedName name="solver_rtr" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rxc1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc10" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc11" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc12" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc13" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc14" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc15" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc16" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc17" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc18" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc19" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc2" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc20" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc21" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc22" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc23" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc24" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc25" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc26" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc3" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc4" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc5" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc6" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc7" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc8" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc9" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxv1" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_seed" hidden="1">0</definedName>
+    <definedName name="solver_sel" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_slv" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_slvu" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_spid" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_srvr" localSheetId="5" hidden="1">" "</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_umod" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_urs" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_userid" localSheetId="0" hidden="1">" "</definedName>
+    <definedName name="solver_userid" localSheetId="1" hidden="1">" "</definedName>
+    <definedName name="solver_userid" localSheetId="2" hidden="1">" "</definedName>
+    <definedName name="solver_userid" localSheetId="3" hidden="1">" "</definedName>
+    <definedName name="solver_userid" localSheetId="4" hidden="1">" "</definedName>
+    <definedName name="solver_userid" localSheetId="5" hidden="1">" "</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_var" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_var1" localSheetId="5" hidden="1">" "</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_vir" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_vir1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_vol" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_vst" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_vst1" localSheetId="5" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -275,7 +702,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="75">
   <si>
     <t>distance matrix</t>
   </si>
@@ -457,14 +884,56 @@
     <t>1 - aj</t>
   </si>
   <si>
-    <t>sum aibij</t>
+    <t>sum aibij  j in D</t>
+  </si>
+  <si>
+    <t>BCP DE PB AVEC NON LINEARITE -&gt; PARFOIS INFEASIBLE PARFOIS SOLUTION QUI CHANGE DEPENDANT DES CONDITIONS INITIALES -&gt; METTRE TOUT EN LP DANS LE PROCHAIN CAS</t>
+  </si>
+  <si>
+    <t>CONTRAINTE LIEE AUX BOUCLES</t>
+  </si>
+  <si>
+    <t>high Const</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Np - Nc</t>
+  </si>
+  <si>
+    <t>C*f</t>
+  </si>
+  <si>
+    <t>produit x * a</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>Commentaire : Cas 1 dt de départ 1 arrivée</t>
+  </si>
+  <si>
+    <t>Commentaire: cas 2 départ 1 arrivée</t>
+  </si>
+  <si>
+    <t>commentaire: cas 4 départ 3 arrivées</t>
+  </si>
+  <si>
+    <t>Cas: nb départ en variable (=&gt; ajout variable d'activation des voitures) =&gt; non linéaire</t>
+  </si>
+  <si>
+    <t>Commentaire: ajout des contraintes "acyclic"</t>
+  </si>
+  <si>
+    <t>Commentaire: Linéairisation des 2 contraintes non linéaires (case1d)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,8 +947,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,6 +1021,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -559,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -573,11 +1054,31 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -610,26 +1111,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD0BDA4E-96EB-4875-8D66-1F977AA5C877}" name="Tableau2" displayName="Tableau2" ref="F1:L7" totalsRowShown="0">
-  <autoFilter ref="F1:L7" xr:uid="{4706B194-EB46-4EE1-B9C3-ED64E3DBE6C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="F1:L7" totalsRowShown="0">
+  <autoFilter ref="F1:L7"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F8FFFAC6-DD2E-4E8F-81EB-68D49AFBBC88}" name="distance matrix"/>
-    <tableColumn id="2" xr3:uid="{087115DF-7C97-445D-B81A-F849FA65828C}" name="A">
+    <tableColumn id="1" name="distance matrix"/>
+    <tableColumn id="2" name="A">
       <calculatedColumnFormula>SQRT((C$2-C2)^2+(D$2-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5CE7AAB4-6897-4C6B-A8C2-B0AFD7276A49}" name="B">
+    <tableColumn id="3" name="B">
       <calculatedColumnFormula>SQRT((C$3-C2)^2+(D$3-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D417ABAB-CABC-4A81-9398-109AC6C229CD}" name="1">
+    <tableColumn id="4" name="1">
       <calculatedColumnFormula>SQRT((C$4-C2)^2+(D$4-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2EBD1A00-FE86-481B-9C34-3126ADF36789}" name="2">
+    <tableColumn id="5" name="2">
       <calculatedColumnFormula>SQRT((C$5-C2)^2+(D$5-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CBACC35E-2246-4BDB-BDA9-8A6BC0CC3C63}" name="3">
+    <tableColumn id="6" name="3">
       <calculatedColumnFormula>SQRT((C$6-C2)^2+(D$6-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C191E8D8-1A92-4434-ACED-6642281A456E}" name="destination">
+    <tableColumn id="7" name="destination">
       <calculatedColumnFormula>SQRT((C$7-C2)^2+(D$7-D2)^2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -637,48 +1138,60 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tableau35117917" displayName="Tableau35117917" ref="B1:D10" totalsRowShown="0">
+  <autoFilter ref="B1:D10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Coordonnées"/>
+    <tableColumn id="2" name="x"/>
+    <tableColumn id="3" name="y"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0025D66-8E61-42E7-B1E6-1C25E1FF75A7}" name="Tableau3" displayName="Tableau3" ref="B1:D7" totalsRowShown="0">
-  <autoFilter ref="B1:D7" xr:uid="{23FEA744-B7A0-4AB4-BA8E-3D1EC4BABB72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B1:D7" totalsRowShown="0">
+  <autoFilter ref="B1:D7"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7BB12CE3-74CF-436E-8A17-F1A5178B7ECC}" name="Coordonnées"/>
-    <tableColumn id="2" xr3:uid="{415DC325-7992-41C2-B458-6FAE5A0E6D6E}" name="x"/>
-    <tableColumn id="3" xr3:uid="{F0FBBDF7-9D25-443A-9CD7-865FC6601963}" name="y"/>
+    <tableColumn id="1" name="Coordonnées"/>
+    <tableColumn id="2" name="x"/>
+    <tableColumn id="3" name="y"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43277BFF-0245-4469-9CA5-75C0D84097BA}" name="Tableau22" displayName="Tableau22" ref="F1:O10" totalsRowShown="0">
-  <autoFilter ref="F1:O10" xr:uid="{4706B194-EB46-4EE1-B9C3-ED64E3DBE6C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau22" displayName="Tableau22" ref="F1:O10" totalsRowShown="0">
+  <autoFilter ref="F1:O10"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{14688EF5-8275-4B93-899E-CEAF2EEE8845}" name="distance matrix"/>
-    <tableColumn id="2" xr3:uid="{CDC121EA-E7B2-43B3-B756-F7894E7E2A1B}" name="S1">
+    <tableColumn id="1" name="distance matrix"/>
+    <tableColumn id="2" name="S1">
       <calculatedColumnFormula>SQRT((C$2-C2)^2+(D$2-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{540F7FFB-D9F8-4AC8-901C-936701A5BB65}" name="S2">
+    <tableColumn id="3" name="S2">
       <calculatedColumnFormula>SQRT((C$3-C2)^2+(D$3-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{439F6117-705F-4364-858C-FF856C173398}" name="S3">
+    <tableColumn id="4" name="S3">
       <calculatedColumnFormula>SQRT((C$4-C2)^2+(D$4-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E432533C-A813-4CC9-BCE7-894891D33251}" name="S4">
+    <tableColumn id="5" name="S4">
       <calculatedColumnFormula>SQRT((C$5-C2)^2+(D$5-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BBB216F3-F863-4815-9975-8291E90562B1}" name="1">
+    <tableColumn id="6" name="1">
       <calculatedColumnFormula>SQRT((C$6-C2)^2+(D$6-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{04AF1A80-3A08-4309-B619-00461709794F}" name="2">
+    <tableColumn id="7" name="2">
       <calculatedColumnFormula>SQRT((C$7-C2)^2+(D$7-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A4ECE921-FAD5-42E4-9E8A-CD14FF0225F6}" name="D1" dataDxfId="5">
+    <tableColumn id="8" name="D1" dataDxfId="11">
       <calculatedColumnFormula>SQRT((C$8-C2)^2+(D$8-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E4050388-FB48-477D-91CC-9E49185CCD01}" name="D2" dataDxfId="4">
+    <tableColumn id="9" name="D2" dataDxfId="10">
       <calculatedColumnFormula>SQRT((C$9-C2)^2+(D$9-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{891843E9-97CB-41ED-B395-57529484DF73}" name="D3" dataDxfId="3">
+    <tableColumn id="10" name="D3" dataDxfId="9">
       <calculatedColumnFormula>SQRT((C$10-C2)^2+(D$10-D2)^2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -687,47 +1200,47 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2F7C2CDB-ACD4-4C59-B9D2-1C5DB18D37C0}" name="Tableau35" displayName="Tableau35" ref="B1:D10" totalsRowShown="0">
-  <autoFilter ref="B1:D10" xr:uid="{23FEA744-B7A0-4AB4-BA8E-3D1EC4BABB72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau35" displayName="Tableau35" ref="B1:D10" totalsRowShown="0">
+  <autoFilter ref="B1:D10"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5CF40F08-CFD0-4BF1-A429-CD3449146525}" name="Coordonnées"/>
-    <tableColumn id="2" xr3:uid="{31B106F7-E477-47CE-8961-9D097D8018E4}" name="x"/>
-    <tableColumn id="3" xr3:uid="{CEDF20E8-47B1-43CE-B1C4-2ACB302610A4}" name="y"/>
+    <tableColumn id="1" name="Coordonnées"/>
+    <tableColumn id="2" name="x"/>
+    <tableColumn id="3" name="y"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3D0D121D-20C4-4250-A7D3-489F79C8CD6F}" name="Tableau2210" displayName="Tableau2210" ref="F1:O10" totalsRowShown="0">
-  <autoFilter ref="F1:O10" xr:uid="{4706B194-EB46-4EE1-B9C3-ED64E3DBE6C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau2210" displayName="Tableau2210" ref="F1:O10" totalsRowShown="0">
+  <autoFilter ref="F1:O10"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3D5FB965-748A-4682-819A-7C021656DB4B}" name="distance matrix"/>
-    <tableColumn id="2" xr3:uid="{D2830664-1CF7-4092-83AA-C6F490C779B9}" name="1">
+    <tableColumn id="1" name="distance matrix"/>
+    <tableColumn id="2" name="1">
       <calculatedColumnFormula>SQRT((C$2-C2)^2+(D$2-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1D24240D-4ADC-4658-A9B7-E7FD30F8D0AF}" name="2">
+    <tableColumn id="3" name="2">
       <calculatedColumnFormula>SQRT((C$3-C2)^2+(D$3-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{44B63950-AB99-4904-9DFD-23624B841A4C}" name="3">
+    <tableColumn id="4" name="3">
       <calculatedColumnFormula>SQRT((C$4-C2)^2+(D$4-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EB05B097-B756-41BD-AC4E-E4605B94E3B8}" name="4">
+    <tableColumn id="5" name="4">
       <calculatedColumnFormula>SQRT((C$5-C2)^2+(D$5-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DAF7D4B3-A10A-4D91-B992-DF6CC17B4D43}" name="5">
+    <tableColumn id="6" name="5">
       <calculatedColumnFormula>SQRT((C$6-C2)^2+(D$6-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{134AADDC-B1B3-47FF-9DD5-16E844F4581A}" name="6">
+    <tableColumn id="7" name="6">
       <calculatedColumnFormula>SQRT((C$7-C2)^2+(D$7-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2DFA2CA8-203E-4485-A929-F9DEDB87CA57}" name="D1" dataDxfId="2">
+    <tableColumn id="8" name="D1" dataDxfId="8">
       <calculatedColumnFormula>SQRT((C$8-C2)^2+(D$8-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BE6BFF67-BE2B-46BF-A388-CBD6180BC5BB}" name="D2" dataDxfId="1">
+    <tableColumn id="9" name="D2" dataDxfId="7">
       <calculatedColumnFormula>SQRT((C$9-C2)^2+(D$9-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D123EDFA-A0B6-4911-A939-D20DA17ECEF6}" name="D3" dataDxfId="0">
+    <tableColumn id="10" name="D3" dataDxfId="6">
       <calculatedColumnFormula>SQRT((C$10-C2)^2+(D$10-D2)^2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -736,12 +1249,98 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{37EE6B2A-0C17-4839-891A-D7FA3A70B0BA}" name="Tableau3511" displayName="Tableau3511" ref="B1:D10" totalsRowShown="0">
-  <autoFilter ref="B1:D10" xr:uid="{23FEA744-B7A0-4AB4-BA8E-3D1EC4BABB72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau3511" displayName="Tableau3511" ref="B1:D10" totalsRowShown="0">
+  <autoFilter ref="B1:D10"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{604E823C-CC84-4E66-97EF-26BDACED2110}" name="Coordonnées"/>
-    <tableColumn id="2" xr3:uid="{CF5787E3-C900-40E1-A1DA-132471B3917B}" name="x"/>
-    <tableColumn id="3" xr3:uid="{4E8C623D-1EA9-43E1-8D35-1E441DA8E401}" name="y"/>
+    <tableColumn id="1" name="Coordonnées"/>
+    <tableColumn id="2" name="x"/>
+    <tableColumn id="3" name="y"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau22106" displayName="Tableau22106" ref="F1:O10" totalsRowShown="0">
+  <autoFilter ref="F1:O10"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="distance matrix"/>
+    <tableColumn id="2" name="1">
+      <calculatedColumnFormula>SQRT((C$2-C2)^2+(D$2-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="2">
+      <calculatedColumnFormula>SQRT((C$3-C2)^2+(D$3-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="3">
+      <calculatedColumnFormula>SQRT((C$4-C2)^2+(D$4-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="4">
+      <calculatedColumnFormula>SQRT((C$5-C2)^2+(D$5-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="5">
+      <calculatedColumnFormula>SQRT((C$6-C2)^2+(D$6-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="6">
+      <calculatedColumnFormula>SQRT((C$7-C2)^2+(D$7-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="D1" dataDxfId="5">
+      <calculatedColumnFormula>SQRT((C$8-C2)^2+(D$8-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="D2" dataDxfId="4">
+      <calculatedColumnFormula>SQRT((C$9-C2)^2+(D$9-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="D3" dataDxfId="3">
+      <calculatedColumnFormula>SQRT((C$10-C2)^2+(D$10-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau35117" displayName="Tableau35117" ref="B1:D10" totalsRowShown="0">
+  <autoFilter ref="B1:D10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Coordonnées"/>
+    <tableColumn id="2" name="x"/>
+    <tableColumn id="3" name="y"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tableau22106816" displayName="Tableau22106816" ref="F1:O10" totalsRowShown="0">
+  <autoFilter ref="F1:O10"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="distance matrix"/>
+    <tableColumn id="2" name="1">
+      <calculatedColumnFormula>SQRT((C$2-C2)^2+(D$2-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="2">
+      <calculatedColumnFormula>SQRT((C$3-C2)^2+(D$3-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="3">
+      <calculatedColumnFormula>SQRT((C$4-C2)^2+(D$4-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="4">
+      <calculatedColumnFormula>SQRT((C$5-C2)^2+(D$5-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="5">
+      <calculatedColumnFormula>SQRT((C$6-C2)^2+(D$6-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="6">
+      <calculatedColumnFormula>SQRT((C$7-C2)^2+(D$7-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="D1" dataDxfId="2">
+      <calculatedColumnFormula>SQRT((C$8-C2)^2+(D$8-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="D2" dataDxfId="1">
+      <calculatedColumnFormula>SQRT((C$9-C2)^2+(D$9-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="D3" dataDxfId="0">
+      <calculatedColumnFormula>SQRT((C$10-C2)^2+(D$10-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1043,16 +1642,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E02D97-1BEF-4AC4-B997-BDA1DDC044E6}">
-  <dimension ref="A1:N35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1105,7 +1704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1151,7 +1750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1174,7 +1773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1246,7 +1845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1279,7 +1878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1306,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1333,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1360,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1387,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1417,7 +2016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1446,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -1454,12 +2053,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1467,7 +2066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>B10</f>
         <v>0</v>
@@ -1479,42 +2078,42 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>C11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>D12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>E13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>F14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>G15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>C12</f>
         <v>0</v>
@@ -1528,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>C13</f>
         <v>0</v>
@@ -1542,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>C14</f>
         <v>1</v>
@@ -1556,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>D13</f>
         <v>1</v>
@@ -1570,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>D14</f>
         <v>0</v>
@@ -1584,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>E14</f>
         <v>0</v>
@@ -1596,6 +2195,11 @@
       <c r="C35" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1604,20 +2208,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891FCA0B-77D4-458A-B238-39F87761B2B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="12" max="12" width="11.7890625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1659,7 +2263,7 @@
         <v>9.3851648071345046</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1700,7 +2304,7 @@
         <v>2.6925824035672519</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -1738,7 +2342,7 @@
         <v>2.6925824035672519</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1779,7 +2383,7 @@
         <v>2.6925824035672519</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1823,7 +2427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1867,7 +2471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -1912,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M8" t="s">
         <v>37</v>
       </c>
@@ -1921,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1947,7 +2551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1980,7 +2584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2007,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2034,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2061,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2088,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2118,7 +2722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -2155,12 +2759,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2168,7 +2772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>B10</f>
         <v>0</v>
@@ -2179,38 +2783,41 @@
       <c r="F23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>C11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>D12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>E13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>F14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>G15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2218,7 +2825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>C12</f>
         <v>0</v>
@@ -2236,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>C13</f>
         <v>0</v>
@@ -2250,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>C14</f>
         <v>0</v>
@@ -2264,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>D13</f>
         <v>0</v>
@@ -2278,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>D14</f>
         <v>0</v>
@@ -2292,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>E14</f>
         <v>1</v>
@@ -2316,20 +2923,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D684BB79-7551-4D82-B7D1-7ED44D6CB47C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="12" max="12" width="11.7890625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2380,7 +2987,7 @@
         <v>78.065667847828223</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2433,7 +3040,7 @@
         <v>39.293765408776999</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -2483,7 +3090,7 @@
         <v>27.856776554368238</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2542,7 +3149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -2598,7 +3205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -2654,7 +3261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -2711,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -2768,7 +3375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -2818,7 +3425,7 @@
         <v>18.248287590894659</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -2871,25 +3478,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>L35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>M36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>N37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>O38</f>
         <v>0</v>
@@ -2898,7 +3505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>P39</f>
         <v>0</v>
@@ -2910,36 +3517,36 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>Q40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>R41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>S42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>T43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>P40</f>
         <v>0</v>
@@ -2953,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R32">
         <f>R33*R$6</f>
         <v>0</v>
@@ -2970,7 +3577,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R33" s="1">
         <v>0</v>
       </c>
@@ -2985,7 +3592,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
       <c r="K34" t="s">
         <v>48</v>
       </c>
@@ -3020,7 +3630,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>49</v>
       </c>
@@ -3056,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
         <v>41</v>
       </c>
@@ -3092,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
         <v>42</v>
       </c>
@@ -3128,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
         <v>43</v>
       </c>
@@ -3164,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K39">
         <v>1</v>
       </c>
@@ -3196,11 +3806,11 @@
         <v>1</v>
       </c>
       <c r="U39" s="3">
-        <f t="shared" ref="U36:U43" si="10">SUM(L39:T39)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="U39:U43" si="10">SUM(L39:T39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K40">
         <v>2</v>
       </c>
@@ -3236,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>44</v>
       </c>
@@ -3272,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
         <v>45</v>
       </c>
@@ -3308,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K43" t="s">
         <v>46</v>
       </c>
@@ -3344,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
         <v>51</v>
       </c>
@@ -3373,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="R44" s="4">
-        <f t="shared" ref="M44:T44" si="12">SUM(R35:R43)</f>
+        <f t="shared" ref="R44:T44" si="12">SUM(R35:R43)</f>
         <v>0</v>
       </c>
       <c r="S44" s="4">
@@ -3385,12 +3995,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="11:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R48">
         <f>SUM(R35:R38)</f>
         <v>0</v>
@@ -3414,20 +4024,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC95D18-69E5-44F4-B219-1B407DEDC463}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="12" max="12" width="11.7890625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -3478,10 +4088,10 @@
       </c>
       <c r="R1" s="8">
         <f>SUMPRODUCT(G2:O10,L35:T43)</f>
-        <v>78.065667847828223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>33.230020162842422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -3494,7 +4104,9 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2">
         <v>1</v>
       </c>
@@ -3535,7 +4147,7 @@
         <v>39.293765408776999</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -3545,7 +4157,9 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
       <c r="F3">
         <v>2</v>
       </c>
@@ -3586,7 +4200,7 @@
         <v>27.856776554368238</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -3599,7 +4213,9 @@
       <c r="D4">
         <v>-10</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
       <c r="F4">
         <v>3</v>
       </c>
@@ -3646,7 +4262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -3656,7 +4272,9 @@
       <c r="D5">
         <v>-12</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5">
         <v>4</v>
       </c>
@@ -3703,7 +4321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -3714,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -3760,10 +4378,10 @@
       </c>
       <c r="R6" s="9">
         <f>SUM(E2:E7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -3773,7 +4391,9 @@
       <c r="D7">
         <v>-11</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
       <c r="F7">
         <v>6</v>
       </c>
@@ -3821,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -3875,10 +4495,10 @@
       </c>
       <c r="R8">
         <f>R6-R7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -3928,7 +4548,7 @@
         <v>18.248287590894659</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -3981,25 +4601,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>L35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>M36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>N37</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="K21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>O38</f>
         <v>0</v>
@@ -4008,7 +4636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>P39</f>
         <v>0</v>
@@ -4020,39 +4648,39 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>Q40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>R41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>S42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>T43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <f>L36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30">
         <f>M35</f>
@@ -4060,10 +4688,10 @@
       </c>
       <c r="C30" s="6">
         <f>SUM(A30,B30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <f t="shared" ref="A31:A34" si="9">L37</f>
         <v>0</v>
@@ -4077,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4100,13 +4728,13 @@
       </c>
       <c r="T32">
         <f>T33*R$6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4133,7 +4761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4180,7 +4808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <f>M37</f>
         <v>0</v>
@@ -4205,7 +4833,9 @@
       <c r="N35" s="1">
         <v>0</v>
       </c>
-      <c r="O35" s="1"/>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
       <c r="P35" s="1">
         <v>1</v>
       </c>
@@ -4226,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <f t="shared" ref="A36:A38" si="12">M38</f>
         <v>0</v>
@@ -4243,7 +4873,7 @@
         <v>2</v>
       </c>
       <c r="L36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4267,17 +4897,17 @@
         <v>0</v>
       </c>
       <c r="T36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="3">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37">
         <f>P36</f>
@@ -4285,7 +4915,7 @@
       </c>
       <c r="C37" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -4322,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -4354,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -4363,14 +4993,14 @@
         <v>0</v>
       </c>
       <c r="T38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="3">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f>N38</f>
         <v>0</v>
@@ -4390,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="1">
         <v>0</v>
@@ -4411,14 +5041,14 @@
         <v>0</v>
       </c>
       <c r="T39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="3">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" ref="A40:A41" si="13">N39</f>
         <v>0</v>
@@ -4444,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="1">
         <v>0</v>
@@ -4459,14 +5089,14 @@
         <v>0</v>
       </c>
       <c r="T40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="3">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -4514,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <f>O39</f>
         <v>0</v>
@@ -4562,14 +5192,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <f>O40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43">
         <f>Q38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="6">
         <f t="shared" si="10"/>
@@ -4610,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>P40</f>
         <v>0</v>
@@ -4628,11 +5258,11 @@
       </c>
       <c r="L44" s="3">
         <f t="shared" ref="L44:O44" si="14">SUM(L35:L43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" si="14"/>
@@ -4640,7 +5270,7 @@
       </c>
       <c r="O44" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="3">
         <f>SUM(P35:P43)</f>
@@ -4648,7 +5278,7 @@
       </c>
       <c r="Q44" s="3">
         <f>SUM(Q35:Q43)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="4">
         <f t="shared" ref="R44:T44" si="15">SUM(R35:R43)</f>
@@ -4660,15 +5290,18 @@
       </c>
       <c r="T44" s="4">
         <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
       <c r="R47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R48">
         <f>SUM(R35:R38)</f>
         <v>0</v>
@@ -4682,7 +5315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="11:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
         <v>59</v>
       </c>
@@ -4696,7 +5329,7 @@
       </c>
       <c r="N50">
         <f>1 - E4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50">
         <f>1 - E5</f>
@@ -4704,16 +5337,3864 @@
       </c>
       <c r="P50">
         <f>1-E6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <f>1-E7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="11:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="K53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
         <v>60</v>
+      </c>
+      <c r="R53">
+        <f>SUMPRODUCT($E$2:$E$7,R35:R40)</f>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f>SUMPRODUCT($E$2:$E$7,S35:S40)</f>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53" si="16">SUMPRODUCT($E$2:$E$7,T35:T40)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC53"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="8">
+        <f>SUMPRODUCT(G2:O10,L35:T43)</f>
+        <v>82.564445947540335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>SQRT((C$2-C2)^2+(D$2-D2)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SQRT((C$3-C2)^2+(D$3-D2)^2)</f>
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="0">SQRT((C$4-C2)^2+(D$4-D2)^2)</f>
+        <v>41.231056256176608</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J7" si="1">SQRT((C$5-C2)^2+(D$5-D2)^2)</f>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K7" si="2">SQRT((C$6-C2)^2+(D$6-D2)^2)</f>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <f>SQRT((C$7-C2)^2+(D$7-D2)^2)</f>
+        <v>43.416586692184822</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M10" si="3">SQRT((C$8-C2)^2+(D$8-D2)^2)</f>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N10" si="4">SQRT((C$9-C2)^2+(D$9-D2)^2)</f>
+        <v>21.189620100417091</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O10" si="5">SQRT((C$10-C2)^2+(D$10-D2)^2)</f>
+        <v>39.293765408776999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="6">SQRT((C$2-C3)^2+(D$2-D3)^2)</f>
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="7">SQRT((C$3-C3)^2+(D$3-D3)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>29.732137494637012</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>30.463092423455635</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="2"/>
+        <v>12.165525060596439</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L7" si="8">SQRT((C$7-C3)^2+(D$7-D3)^2)</f>
+        <v>31.953090617340916</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="3"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="4"/>
+        <v>10.63014581273465</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="5"/>
+        <v>27.856776554368238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>-10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="6"/>
+        <v>41.231056256176608</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="7"/>
+        <v>29.732137494637012</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="8"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>30.083217912982647</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>20.223748416156685</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>-12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="6"/>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="7"/>
+        <v>30.463092423455635</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>42.379240200834182</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="8"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>30.675723300355934</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>20.615528128088304</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="7"/>
+        <v>12.165525060596439</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>42.379240200834182</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="8"/>
+        <v>43.965895873961216</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>11.704699910719626</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>21.931712199461309</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>39.849717690342551</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="9">
+        <f>SUM(E2:E7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>-11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="6"/>
+        <v>43.416586692184822</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="7"/>
+        <v>31.953090617340916</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>43.965895873961216</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>32.280024783137947</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>22.360679774997898</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7">
+        <f>IF(R5=R6,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="H8">
+        <f>SQRT((C$3-C8)^2+(D$3-D8)^2)</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I8">
+        <f>SQRT((C$4-C8)^2+(D$4-D8)^2)</f>
+        <v>30.083217912982647</v>
+      </c>
+      <c r="J8">
+        <f>SQRT((C$5-C8)^2+(D$5-D8)^2)</f>
+        <v>30.675723300355934</v>
+      </c>
+      <c r="K8">
+        <f>SQRT((C$6-C8)^2+(D$6-D8)^2)</f>
+        <v>11.704699910719626</v>
+      </c>
+      <c r="L8">
+        <f>SQRT((C$7-C8)^2+(D$7-D8)^2)</f>
+        <v>32.280024783137947</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>10.295630140987001</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>28.160255680657446</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8">
+        <f>R6-R7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>21.189620100417091</v>
+      </c>
+      <c r="H9">
+        <f>SQRT((C$3-C9)^2+(D$3-D9)^2)</f>
+        <v>10.63014581273465</v>
+      </c>
+      <c r="I9">
+        <f>SQRT((C$4-C9)^2+(D$4-D9)^2)</f>
+        <v>20.223748416156685</v>
+      </c>
+      <c r="J9">
+        <f>SQRT((C$5-C9)^2+(D$5-D9)^2)</f>
+        <v>20.615528128088304</v>
+      </c>
+      <c r="K9">
+        <f>SQRT((C$6-C9)^2+(D$6-D9)^2)</f>
+        <v>21.931712199461309</v>
+      </c>
+      <c r="L9">
+        <f>SQRT((C$7-C9)^2+(D$7-D9)^2)</f>
+        <v>22.360679774997898</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>10.295630140987001</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>18.248287590894659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>-10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <f>SQRT((C$2-C10)^2+(D$2-D10)^2)</f>
+        <v>39.293765408776999</v>
+      </c>
+      <c r="H10">
+        <f>SQRT((C$3-C10)^2+(D$3-D10)^2)</f>
+        <v>27.856776554368238</v>
+      </c>
+      <c r="I10">
+        <f>SQRT((C$4-C10)^2+(D$4-D10)^2)</f>
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <f>SQRT((C$5-C10)^2+(D$5-D10)^2)</f>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="K10">
+        <f>SQRT((C$6-C10)^2+(D$6-D10)^2)</f>
+        <v>39.849717690342551</v>
+      </c>
+      <c r="L10">
+        <f>SQRT((C$7-C10)^2+(D$7-D10)^2)</f>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>28.160255680657446</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>18.248287590894659</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>L35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>M36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>N37</f>
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>O38</f>
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>4</v>
+      </c>
+      <c r="O22" s="1">
+        <v>6</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>P39</f>
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>Q40</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>$L$22</f>
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <f>$M$22</f>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f>$N$22</f>
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <f>$O$22</f>
+        <v>6</v>
+      </c>
+      <c r="P24">
+        <f>$P$22</f>
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <f>$Q$22</f>
+        <v>3</v>
+      </c>
+      <c r="S24" s="13">
+        <f>L22</f>
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <f>$L$22</f>
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ref="U24:Y24" si="9">$L$22</f>
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>R41</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25:L29" si="10">$L$22</f>
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:M29" si="11">$M$22</f>
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N29" si="12">$N$22</f>
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25:O29" si="13">$O$22</f>
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P29" si="14">$P$22</f>
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25:Q29" si="15">$Q$22</f>
+        <v>3</v>
+      </c>
+      <c r="S25" s="13">
+        <f>M22</f>
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <f>$M$22</f>
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ref="U25:Y25" si="16">$M$22</f>
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <f>$M$22</f>
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>S42</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="S26" s="13">
+        <f>N22</f>
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <f>$N$22</f>
+        <v>4</v>
+      </c>
+      <c r="U26">
+        <f t="shared" ref="U26:Y26" si="17">$N$22</f>
+        <v>4</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>T43</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="S27" s="13">
+        <f>O22</f>
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <f>$O$22</f>
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <f t="shared" ref="U27:Y27" si="18">$O$22</f>
+        <v>6</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="S28" s="13">
+        <f>P22</f>
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <f>$P$22</f>
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <f t="shared" ref="U28:Y28" si="19">$P$22</f>
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="S29" s="13">
+        <f>Q22</f>
+        <v>3</v>
+      </c>
+      <c r="T29">
+        <f>$Q$22</f>
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ref="U29:Y29" si="20">$Q$22</f>
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <f>$Q$22</f>
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <f>L36</f>
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <f>M35</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <f>SUM(A30,B30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <f t="shared" ref="A31:A34" si="21">L37</f>
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <f>N35</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" ref="C31:C44" si="22">SUM(A31,B31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <f>O35</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f>R33*R$6</f>
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <f>S33*R$6</f>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f>T33*R$6</f>
+        <v>0</v>
+      </c>
+      <c r="U32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <f>P35</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f>SUM(R33:T33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <f>Q35</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <f>M37</f>
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <f>N36</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <f t="shared" ref="U35:U43" si="23">SUM(L35:T35)</f>
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <f>$R$5*(1-L35)-T24+L24-1</f>
+        <v>5</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" ref="Y35:AC40" si="24">$R$5*(1-M35)-U24+M24-1</f>
+        <v>4</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <f t="shared" ref="A36:A38" si="25">M38</f>
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <f>O36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <f t="shared" ref="X36:X40" si="26">$R$5*(1-L36)-T25+L25-1</f>
+        <v>6</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <f>P36</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <f>Q36</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f>N38</f>
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <f>O37</f>
+        <v>1</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" ref="A40:A41" si="27">N39</f>
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <f>P37</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <f>Q37</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="6">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <f>O39</f>
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <f>P38</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <f>O40</f>
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <f>Q38</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>P40</f>
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <f>Q39</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" ref="L44:O44" si="28">SUM(L35:L43)</f>
+        <v>1</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="P44" s="3">
+        <f>SUM(P35:P43)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <f>SUM(Q35:Q43)</f>
+        <v>1</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" ref="R44:T44" si="29">SUM(R35:R43)</f>
+        <v>2</v>
+      </c>
+      <c r="S44" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="R47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <f>SUM(R35:R38)</f>
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <f>SUM(S35:S38)</f>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f>SUM(T35:T38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>59</v>
+      </c>
+      <c r="L50">
+        <f>1 - E2</f>
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <f>1 - E3</f>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f>1 - E4</f>
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <f>1 - E5</f>
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <f>1-E6</f>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f>1-E7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>60</v>
+      </c>
+      <c r="R53">
+        <f>SUMPRODUCT($E$2:$E$7,R35:R40)</f>
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <f>SUMPRODUCT($E$2:$E$7,S35:S40)</f>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53" si="30">SUMPRODUCT($E$2:$E$7,T35:T40)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="8">
+        <f>SUMPRODUCT(G2:O10,L35:T43)</f>
+        <v>1006.1760051740979</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>SQRT((C$2-C2)^2+(D$2-D2)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SQRT((C$3-C2)^2+(D$3-D2)^2)</f>
+        <v>988</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="0">SQRT((C$4-C2)^2+(D$4-D2)^2)</f>
+        <v>960.05208192055909</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J7" si="1">SQRT((C$5-C2)^2+(D$5-D2)^2)</f>
+        <v>960.07499707054137</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K7" si="2">SQRT((C$6-C2)^2+(D$6-D2)^2)</f>
+        <v>1000.001999998</v>
+      </c>
+      <c r="L2">
+        <f>SQRT((C$7-C2)^2+(D$7-D2)^2)</f>
+        <v>958.06315031943484</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M10" si="3">SQRT((C$8-C2)^2+(D$8-D2)^2)</f>
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N10" si="4">SQRT((C$9-C2)^2+(D$9-D2)^2)</f>
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O10" si="5">SQRT((C$10-C2)^2+(D$10-D2)^2)</f>
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2">
+        <f>R5-R6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="6">SQRT((C$2-C3)^2+(D$2-D3)^2)</f>
+        <v>988</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="7">SQRT((C$3-C3)^2+(D$3-D3)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>29.732137494637012</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>30.463092423455635</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="2"/>
+        <v>12.165525060596439</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L7" si="8">SQRT((C$7-C3)^2+(D$7-D3)^2)</f>
+        <v>31.953090617340916</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="3"/>
+        <v>988.00202428942418</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="4"/>
+        <v>988.02479725966396</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="5"/>
+        <v>988.05060599141382</v>
+      </c>
+      <c r="T3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="14">
+        <f>R5+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>-10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="6"/>
+        <v>960.05208192055909</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="7"/>
+        <v>29.732137494637012</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="8"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>960.03333275464968</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>960.00468748855599</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="5"/>
+        <v>960</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4">
+        <v>9</v>
+      </c>
+      <c r="T4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>-12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="6"/>
+        <v>960.07499707054137</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="7"/>
+        <v>30.463092423455635</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>42.379240200834182</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="8"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>960.05208192055909</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>960.01302074503133</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>960.00208333107275</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="T5" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5">
+        <f>U4*U3</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>1000.001999998</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="7"/>
+        <v>12.165525060596439</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>42.379240200834182</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="8"/>
+        <v>43.965895873961216</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>1000.0079999680003</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>1000.0404991799082</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>1000.0719974081866</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="9">
+        <f>SUM(E2:E7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>-11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="6"/>
+        <v>958.06315031943484</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="7"/>
+        <v>31.953090617340916</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>43.965895873961216</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>958.04227464136466</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>958.00835069429331</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>958.0005219205259</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7">
+        <f>IF(R5=R6,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f>SQRT((C$3-C8)^2+(D$3-D8)^2)</f>
+        <v>988.00202428942418</v>
+      </c>
+      <c r="I8">
+        <f>SQRT((C$4-C8)^2+(D$4-D8)^2)</f>
+        <v>960.03333275464968</v>
+      </c>
+      <c r="J8">
+        <f>SQRT((C$5-C8)^2+(D$5-D8)^2)</f>
+        <v>960.05208192055909</v>
+      </c>
+      <c r="K8">
+        <f>SQRT((C$6-C8)^2+(D$6-D8)^2)</f>
+        <v>1000.0079999680003</v>
+      </c>
+      <c r="L8">
+        <f>SQRT((C$7-C8)^2+(D$7-D8)^2)</f>
+        <v>958.04227464136466</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8">
+        <f>R6-U4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f>SQRT((C$3-C9)^2+(D$3-D9)^2)</f>
+        <v>988.02479725966396</v>
+      </c>
+      <c r="I9">
+        <f>SQRT((C$4-C9)^2+(D$4-D9)^2)</f>
+        <v>960.00468748855599</v>
+      </c>
+      <c r="J9">
+        <f>SQRT((C$5-C9)^2+(D$5-D9)^2)</f>
+        <v>960.01302074503133</v>
+      </c>
+      <c r="K9">
+        <f>SQRT((C$6-C9)^2+(D$6-D9)^2)</f>
+        <v>1000.0404991799082</v>
+      </c>
+      <c r="L9">
+        <f>SQRT((C$7-C9)^2+(D$7-D9)^2)</f>
+        <v>958.00835069429331</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>-10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <f>SQRT((C$2-C10)^2+(D$2-D10)^2)</f>
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <f>SQRT((C$3-C10)^2+(D$3-D10)^2)</f>
+        <v>988.05060599141382</v>
+      </c>
+      <c r="I10">
+        <f>SQRT((C$4-C10)^2+(D$4-D10)^2)</f>
+        <v>960</v>
+      </c>
+      <c r="J10">
+        <f>SQRT((C$5-C10)^2+(D$5-D10)^2)</f>
+        <v>960.00208333107275</v>
+      </c>
+      <c r="K10">
+        <f>SQRT((C$6-C10)^2+(D$6-D10)^2)</f>
+        <v>1000.0719974081866</v>
+      </c>
+      <c r="L10">
+        <f>SQRT((C$7-C10)^2+(D$7-D10)^2)</f>
+        <v>958.0005219205259</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>L35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>M36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>N37</f>
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>O38</f>
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="1">
+        <v>6</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1">
+        <v>3</v>
+      </c>
+      <c r="O22" s="1">
+        <v>4</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>P39</f>
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>Q40</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>$L$22</f>
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <f>$M$22</f>
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <f>$N$22</f>
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <f>$O$22</f>
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <f>$P$22</f>
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <f>$Q$22</f>
+        <v>6</v>
+      </c>
+      <c r="S24" s="13">
+        <f>L22</f>
+        <v>6</v>
+      </c>
+      <c r="T24">
+        <f>$L$22</f>
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ref="U24:Y24" si="9">$L$22</f>
+        <v>6</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>R41</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25:L29" si="10">$L$22</f>
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:M29" si="11">$M$22</f>
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N29" si="12">$N$22</f>
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25:O29" si="13">$O$22</f>
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P29" si="14">$P$22</f>
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25:Q29" si="15">$Q$22</f>
+        <v>6</v>
+      </c>
+      <c r="S25" s="13">
+        <f>M22</f>
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <f>$M$22</f>
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ref="U25:Y25" si="16">$M$22</f>
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <f>$M$22</f>
+        <v>2</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>S42</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="S26" s="13">
+        <f>N22</f>
+        <v>3</v>
+      </c>
+      <c r="T26">
+        <f>$N$22</f>
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <f t="shared" ref="U26:Y26" si="17">$N$22</f>
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>T43</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="S27" s="13">
+        <f>O22</f>
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <f>$O$22</f>
+        <v>4</v>
+      </c>
+      <c r="U27">
+        <f t="shared" ref="U27:Y27" si="18">$O$22</f>
+        <v>4</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="S28" s="13">
+        <f>P22</f>
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <f>$P$22</f>
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <f t="shared" ref="U28:Y28" si="19">$P$22</f>
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="S29" s="13">
+        <f>Q22</f>
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <f>$Q$22</f>
+        <v>6</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ref="U29:Y29" si="20">$Q$22</f>
+        <v>6</v>
+      </c>
+      <c r="V29">
+        <f>$Q$22</f>
+        <v>6</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <f>L36</f>
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <f>M35</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <f>SUM(A30,B30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <f t="shared" ref="A31:A34" si="21">L37</f>
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <f>N35</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" ref="C31:C44" si="22">SUM(A31,B31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <f>O35</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f>R33*R$6</f>
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <f>S33*R$6</f>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f>T33*R$6</f>
+        <v>0</v>
+      </c>
+      <c r="U32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <f>P35</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f>SUM(R33:T33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <f>Q35</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <f>M37</f>
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <f>N36</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <f t="shared" ref="U35:U43" si="23">SUM(L35:T35)</f>
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <f>$R$5*(1-L35)-T24+L24-1</f>
+        <v>5</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" ref="Y35:AC40" si="24">$R$5*(1-M35)-U24+M24-1</f>
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <f t="shared" ref="A36:A38" si="25">M38</f>
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <f>O36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <f t="shared" ref="X36:X40" si="26">$R$5*(1-L36)-T25+L25-1</f>
+        <v>9</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f>P36</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <f>Q36</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f>N38</f>
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <f>O37</f>
+        <v>1</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" ref="A40:A41" si="27">N39</f>
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <f>P37</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <f>Q37</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <f>O39</f>
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <f>P38</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <f>O40</f>
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <f>Q38</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>P40</f>
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <f>Q39</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" ref="L44:O44" si="28">SUM(L35:L43)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="P44" s="3">
+        <f>SUM(P35:P43)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <f>SUM(Q35:Q43)</f>
+        <v>1</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" ref="R44:T44" si="29">SUM(R35:R43)</f>
+        <v>2</v>
+      </c>
+      <c r="S44" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="R47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <f>SUM(R35:R38)</f>
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <f>SUM(S35:S38)</f>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f>SUM(T35:T38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>59</v>
+      </c>
+      <c r="L50">
+        <f>1 - E2</f>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f>1 - E3</f>
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <f>1 - E4</f>
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <f>1 - E5</f>
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <f>1-E6</f>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f>1-E7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>60</v>
+      </c>
+      <c r="R53">
+        <f>SUMPRODUCT($E$2:$E$7,R35:R40)</f>
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <f>SUMPRODUCT($E$2:$E$7,S35:S40)</f>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53" si="30">SUMPRODUCT($E$2:$E$7,T35:T40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q56" t="s">
+        <v>67</v>
+      </c>
+      <c r="R56" s="1">
+        <v>1</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <f>$R$33+E2 -1</f>
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <f>$S$33+E2-1</f>
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <f>$T$33+E2-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R57" s="1">
+        <v>0</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <f t="shared" ref="V57:V61" si="31">$R$33+E3 -1</f>
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <f t="shared" ref="W57:W61" si="32">$S$33+E3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <f t="shared" ref="X57:X61" si="33">$T$33+E3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R58" s="1">
+        <v>0</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R59" s="1">
+        <v>0</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R60" s="1">
+        <v>1</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R61" s="1">
+        <v>0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q62" t="s">
+        <v>68</v>
+      </c>
+      <c r="R62">
+        <f>SUM(R56:R61)</f>
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <f t="shared" ref="S62:T62" si="34">SUM(S56:S61)</f>
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/case1.xlsx
+++ b/case1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8775" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8775" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Case1a" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="solver_adj" localSheetId="5" hidden="1">Case1f!$L$22:$Q$22,Case1f!$R$33:$T$33,Case1f!$L$35:$T$43,Case1f!$E$2:$E$7,Case1f!$U$4,Case1f!$R$56:$T$61</definedName>
     <definedName name="solver_adj_ob" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_adj_ob1" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_adj1" localSheetId="5" hidden="1">Case1f!$T$23</definedName>
+    <definedName name="solver_adj1" localSheetId="5" hidden="1">Case1f!$R$46:$T$51</definedName>
     <definedName name="solver_cha" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_chc1" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_chc10" localSheetId="5" hidden="1">0</definedName>
@@ -55,7 +55,14 @@
     <definedName name="solver_chc24" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_chc25" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_chc26" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc27" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc28" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc29" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_chc3" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc30" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc31" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc32" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc33" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_chc4" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_chc5" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_chc6" localSheetId="5" hidden="1">0</definedName>
@@ -82,7 +89,14 @@
     <definedName name="solver_chp24" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_chp25" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_chp26" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp27" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp28" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp29" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_chp3" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp30" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp31" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp32" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp33" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_chp4" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_chp5" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_chp6" localSheetId="5" hidden="1">0</definedName>
@@ -109,7 +123,14 @@
     <definedName name="solver_cir24" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_cir25" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_cir26" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir27" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir28" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir29" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_cir3" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir30" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir31" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir32" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir33" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_cir4" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_cir5" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_cir6" localSheetId="5" hidden="1">1</definedName>
@@ -136,7 +157,14 @@
     <definedName name="solver_con24" localSheetId="5" hidden="1">" "</definedName>
     <definedName name="solver_con25" localSheetId="5" hidden="1">" "</definedName>
     <definedName name="solver_con26" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con27" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con28" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con29" localSheetId="5" hidden="1">" "</definedName>
     <definedName name="solver_con3" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con30" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con31" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con32" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con33" localSheetId="5" hidden="1">" "</definedName>
     <definedName name="solver_con4" localSheetId="5" hidden="1">" "</definedName>
     <definedName name="solver_con5" localSheetId="5" hidden="1">" "</definedName>
     <definedName name="solver_con6" localSheetId="5" hidden="1">" "</definedName>
@@ -198,7 +226,14 @@
     <definedName name="solver_lhs_ob24" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob25" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob26" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob27" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob28" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob29" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob3" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob30" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob31" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob32" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob33" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob4" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob5" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob6" localSheetId="5" hidden="1">0</definedName>
@@ -252,12 +287,19 @@
     <definedName name="solver_lhs24" localSheetId="5" hidden="1">Case1f!$U$41:$U$43</definedName>
     <definedName name="solver_lhs25" localSheetId="5" hidden="1">Case1f!$U$5</definedName>
     <definedName name="solver_lhs26" localSheetId="5" hidden="1">Case1f!$X$35:$AC$40</definedName>
+    <definedName name="solver_lhs27" localSheetId="5" hidden="1">Case1f!$R$46:$T$51</definedName>
+    <definedName name="solver_lhs28" localSheetId="5" hidden="1">Case1f!$R$46:$T$51</definedName>
+    <definedName name="solver_lhs29" localSheetId="5" hidden="1">Case1f!$R$46:$R$51</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Case1a!$B$16</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">Case1b!$B$16:$C$16</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">Case1c!$L$35:$T$43</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">Case1d!$E$2:$E$7</definedName>
     <definedName name="solver_lhs3" localSheetId="4" hidden="1">Case1e!$E$2:$E$7</definedName>
     <definedName name="solver_lhs3" localSheetId="5" hidden="1">Case1f!$E$2:$E$7</definedName>
+    <definedName name="solver_lhs30" localSheetId="5" hidden="1">Case1f!$S$46:$S$51</definedName>
+    <definedName name="solver_lhs31" localSheetId="5" hidden="1">Case1f!$T$46:$T$51</definedName>
+    <definedName name="solver_lhs32" localSheetId="5" hidden="1">Case1f!$R$46:$T$51</definedName>
+    <definedName name="solver_lhs33" localSheetId="5" hidden="1">Case1f!$R$52:$T$52</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Case1a!$C$16:$F$16</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">Case1b!$C$30:$C$35</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">Case1c!$L$44:$O$44</definedName>
@@ -340,7 +382,7 @@
     <definedName name="solver_num" localSheetId="2" hidden="1">11</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">13</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">17</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">26</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">33</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
@@ -389,7 +431,14 @@
     <definedName name="solver_reco24" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_reco25" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_reco26" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco27" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco28" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco29" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_reco3" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco30" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco31" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco32" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco33" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_reco4" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_reco5" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_reco6" localSheetId="5" hidden="1">0</definedName>
@@ -443,12 +492,19 @@
     <definedName name="solver_rel24" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel25" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel26" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel27" localSheetId="5" hidden="1">5</definedName>
+    <definedName name="solver_rel28" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel29" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_rel3" localSheetId="4" hidden="1">5</definedName>
     <definedName name="solver_rel3" localSheetId="5" hidden="1">5</definedName>
+    <definedName name="solver_rel30" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel31" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel32" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel33" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">2</definedName>
@@ -529,16 +585,20 @@
     <definedName name="solver_rhs20" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rhs21" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rhs22" localSheetId="5" hidden="1">Case1f!$U$2</definedName>
-    <definedName name="solver_rhs23" localSheetId="5" hidden="1">binaire</definedName>
     <definedName name="solver_rhs24" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs25" localSheetId="5" hidden="1">Case1f!$U$2</definedName>
     <definedName name="solver_rhs26" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rhs28" localSheetId="5" hidden="1">Case1f!$R$35:$T$40</definedName>
+    <definedName name="solver_rhs29" localSheetId="5" hidden="1">Case1f!$E$2:$E$7</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">binaire</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">binaire</definedName>
     <definedName name="solver_rhs3" localSheetId="4" hidden="1">binaire</definedName>
-    <definedName name="solver_rhs3" localSheetId="5" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs30" localSheetId="5" hidden="1">Case1f!$E$2:$E$7</definedName>
+    <definedName name="solver_rhs31" localSheetId="5" hidden="1">Case1f!$E$2:$E$7</definedName>
+    <definedName name="solver_rhs32" localSheetId="5" hidden="1">Case1f!$V$46:$X$51</definedName>
+    <definedName name="solver_rhs33" localSheetId="5" hidden="1">Case1f!$R$8</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">0</definedName>
@@ -550,7 +610,6 @@
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">Case1d!$L$50:$Q$50</definedName>
     <definedName name="solver_rhs5" localSheetId="4" hidden="1">entier</definedName>
-    <definedName name="solver_rhs5" localSheetId="5" hidden="1">entier</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">Case1b!$N$6</definedName>
     <definedName name="solver_rhs6" localSheetId="2" hidden="1">binaire</definedName>
@@ -562,7 +621,6 @@
     <definedName name="solver_rhs7" localSheetId="2" hidden="1">Case1c!$R$32:$T$32</definedName>
     <definedName name="solver_rhs7" localSheetId="3" hidden="1">Case1d!$R$32:$T$32</definedName>
     <definedName name="solver_rhs7" localSheetId="4" hidden="1">binaire</definedName>
-    <definedName name="solver_rhs7" localSheetId="5" hidden="1">binaire</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs8" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs8" localSheetId="2" hidden="1">Case1c!$R$8</definedName>
@@ -574,13 +632,12 @@
     <definedName name="solver_rhs9" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs9" localSheetId="3" hidden="1">Case1d!$R$5</definedName>
     <definedName name="solver_rhs9" localSheetId="4" hidden="1">binaire</definedName>
-    <definedName name="solver_rhs9" localSheetId="5" hidden="1">binaire</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
@@ -608,7 +665,14 @@
     <definedName name="solver_rxc24" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rxc25" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rxc26" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc27" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc28" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc29" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rxc3" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc30" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc31" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc32" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc33" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rxc4" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rxc5" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rxc6" localSheetId="5" hidden="1">1</definedName>
@@ -680,7 +744,7 @@
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">17</definedName>
     <definedName name="solver_vir" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_vir1" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_vol" localSheetId="5" hidden="1">0</definedName>
@@ -702,7 +766,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="77">
   <si>
     <t>distance matrix</t>
   </si>
@@ -927,6 +991,12 @@
   </si>
   <si>
     <t>Commentaire: Linéairisation des 2 contraintes non linéaires (case1d)</t>
+  </si>
+  <si>
+    <t>sum (ai bij)</t>
+  </si>
+  <si>
+    <t>ai*bij</t>
   </si>
 </sst>
 </file>
@@ -7197,8 +7267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7258,7 +7328,7 @@
       </c>
       <c r="R1" s="8">
         <f>SUMPRODUCT(G2:O10,L35:T43)</f>
-        <v>1006.1760051740979</v>
+        <v>1014.1342524532591</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -7294,7 +7364,7 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J7" si="1">SQRT((C$5-C2)^2+(D$5-D2)^2)</f>
-        <v>960.07499707054137</v>
+        <v>12</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K7" si="2">SQRT((C$6-C2)^2+(D$6-D2)^2)</f>
@@ -7321,7 +7391,7 @@
       </c>
       <c r="U2">
         <f>R5-R6</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -7354,7 +7424,7 @@
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>30.463092423455635</v>
+        <v>988.07287180652827</v>
       </c>
       <c r="K3">
         <f t="shared" si="2"/>
@@ -7417,7 +7487,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>960.00208333107275</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
@@ -7457,28 +7527,28 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="D5">
         <v>-12</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5">
         <f t="shared" si="6"/>
-        <v>960.07499707054137</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <f t="shared" si="7"/>
-        <v>30.463092423455635</v>
+        <v>988.07287180652827</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>960.00208333107275</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
@@ -7486,23 +7556,23 @@
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>42.379240200834182</v>
+        <v>1000.0979951984706</v>
       </c>
       <c r="L5">
         <f t="shared" si="8"/>
-        <v>2.2360679774997898</v>
+        <v>958.0005219205259</v>
       </c>
       <c r="M5">
         <f t="shared" si="3"/>
-        <v>960.05208192055909</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <f t="shared" si="4"/>
-        <v>960.01302074503133</v>
+        <v>5</v>
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>960.00208333107275</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="s">
         <v>36</v>
@@ -7548,7 +7618,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>42.379240200834182</v>
+        <v>1000.0979951984706</v>
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
@@ -7575,7 +7645,7 @@
       </c>
       <c r="R6" s="9">
         <f>SUM(E2:E7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -7608,7 +7678,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>2.2360679774997898</v>
+        <v>958.0005219205259</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
@@ -7665,7 +7735,7 @@
       </c>
       <c r="J8">
         <f>SQRT((C$5-C8)^2+(D$5-D8)^2)</f>
-        <v>960.05208192055909</v>
+        <v>10</v>
       </c>
       <c r="K8">
         <f>SQRT((C$6-C8)^2+(D$6-D8)^2)</f>
@@ -7692,7 +7762,7 @@
       </c>
       <c r="R8">
         <f>R6-U4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -7722,7 +7792,7 @@
       </c>
       <c r="J9">
         <f>SQRT((C$5-C9)^2+(D$5-D9)^2)</f>
-        <v>960.01302074503133</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <f>SQRT((C$6-C9)^2+(D$6-D9)^2)</f>
@@ -7772,7 +7842,7 @@
       </c>
       <c r="J10">
         <f>SQRT((C$5-C10)^2+(D$5-D10)^2)</f>
-        <v>960.00208333107275</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <f>SQRT((C$6-C10)^2+(D$6-D10)^2)</f>
@@ -7839,10 +7909,10 @@
         <v>2</v>
       </c>
       <c r="N22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O22" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P22" s="1">
         <v>1</v>
@@ -7862,9 +7932,6 @@
       <c r="F23" t="s">
         <v>21</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -7881,11 +7948,11 @@
       </c>
       <c r="N24">
         <f>$N$22</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O24">
         <f>$O$22</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P24">
         <f>$P$22</f>
@@ -7939,11 +8006,11 @@
       </c>
       <c r="N25">
         <f t="shared" ref="N25:N29" si="12">$N$22</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O25">
         <f t="shared" ref="O25:O29" si="13">$O$22</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P25">
         <f t="shared" ref="P25:P29" si="14">$P$22</f>
@@ -7997,11 +8064,11 @@
       </c>
       <c r="N26">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O26">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P26">
         <f t="shared" si="14"/>
@@ -8013,31 +8080,31 @@
       </c>
       <c r="S26" s="13">
         <f>N22</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T26">
         <f>$N$22</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U26">
         <f t="shared" ref="U26:Y26" si="17">$N$22</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V26">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W26">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X26">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y26">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -8055,11 +8122,11 @@
       </c>
       <c r="N27">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O27">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P27">
         <f t="shared" si="14"/>
@@ -8071,31 +8138,31 @@
       </c>
       <c r="S27" s="13">
         <f>O22</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <f>$O$22</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U27">
         <f t="shared" ref="U27:Y27" si="18">$O$22</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V27">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X27">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y27">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -8109,11 +8176,11 @@
       </c>
       <c r="N28">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O28">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P28">
         <f t="shared" si="14"/>
@@ -8166,11 +8233,11 @@
       </c>
       <c r="N29">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O29">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P29">
         <f t="shared" si="14"/>
@@ -8252,7 +8319,7 @@
       </c>
       <c r="R32">
         <f>R33*R$6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S32">
         <f>S33*R$6</f>
@@ -8260,7 +8327,7 @@
       </c>
       <c r="T32">
         <f>T33*R$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U32" t="s">
         <v>52</v>
@@ -8280,13 +8347,13 @@
         <v>0</v>
       </c>
       <c r="R33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="1">
         <v>0</v>
       </c>
       <c r="T33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
         <f>SUM(R33:T33)</f>
@@ -8375,13 +8442,13 @@
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1">
         <v>0</v>
       </c>
       <c r="T35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" ref="U35:U43" si="23">SUM(L35:T35)</f>
@@ -8397,11 +8464,11 @@
       </c>
       <c r="Z35">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA35">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB35">
         <f t="shared" si="24"/>
@@ -8469,11 +8536,11 @@
       </c>
       <c r="Z36">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA36">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB36">
         <f t="shared" si="24"/>
@@ -8510,13 +8577,13 @@
         <v>0</v>
       </c>
       <c r="O37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="1">
         <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
@@ -8533,11 +8600,11 @@
       </c>
       <c r="X37">
         <f t="shared" si="26"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y37">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z37">
         <f t="shared" si="24"/>
@@ -8545,15 +8612,15 @@
       </c>
       <c r="AA37">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB37">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC37">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -8588,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -8597,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="3">
         <f t="shared" si="23"/>
@@ -8605,15 +8672,15 @@
       </c>
       <c r="X38">
         <f t="shared" si="26"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y38">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z38">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA38">
         <f t="shared" si="24"/>
@@ -8621,11 +8688,11 @@
       </c>
       <c r="AB38">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC38">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -8635,11 +8702,11 @@
       </c>
       <c r="B39">
         <f>O37</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="6">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>5</v>
@@ -8685,11 +8752,11 @@
       </c>
       <c r="Z39">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA39">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB39">
         <f t="shared" si="24"/>
@@ -8735,13 +8802,13 @@
         <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1">
         <v>0</v>
       </c>
       <c r="T40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" s="3">
         <f t="shared" si="23"/>
@@ -8757,11 +8824,11 @@
       </c>
       <c r="Z40">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA40">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB40">
         <f t="shared" si="24"/>
@@ -8779,11 +8846,11 @@
       </c>
       <c r="B41">
         <f>Q37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="s">
         <v>44</v>
@@ -8875,11 +8942,11 @@
       </c>
       <c r="B43">
         <f>Q38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="6">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="s">
         <v>46</v>
@@ -8946,7 +9013,7 @@
       </c>
       <c r="O44" s="3">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <f>SUM(P35:P43)</f>
@@ -8958,7 +9025,7 @@
       </c>
       <c r="R44" s="4">
         <f t="shared" ref="R44:T44" si="29">SUM(R35:R43)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S44" s="4">
         <f t="shared" si="29"/>
@@ -8966,32 +9033,106 @@
       </c>
       <c r="T44" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q46" t="s">
+        <v>76</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <f>R35+$E2-1</f>
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f t="shared" ref="W46:X51" si="30">S35+$E2-1</f>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="R47" t="s">
-        <v>39</v>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <f t="shared" ref="V47:V51" si="31">R36+$E3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="30"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="R48">
-        <f>SUM(R35:R38)</f>
-        <v>1</v>
-      </c>
-      <c r="S48">
-        <f>SUM(S35:S38)</f>
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <f>SUM(T35:T38)</f>
-        <v>0</v>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="30"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <f>T38+$E5-1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
@@ -9011,7 +9152,7 @@
       </c>
       <c r="O50">
         <f>1 - E5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <f>1-E6</f>
@@ -9020,6 +9161,67 @@
       <c r="Q50">
         <f>1-E7</f>
         <v>1</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R51" s="1">
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q52" t="s">
+        <v>75</v>
+      </c>
+      <c r="R52">
+        <f>SUM(R46:R51)</f>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f t="shared" ref="S52:T52" si="32">SUM(S46:S51)</f>
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="32"/>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
@@ -9028,15 +9230,15 @@
       </c>
       <c r="R53">
         <f>SUMPRODUCT($E$2:$E$7,R35:R40)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53">
         <f>SUMPRODUCT($E$2:$E$7,S35:S40)</f>
         <v>0</v>
       </c>
       <c r="T53">
-        <f t="shared" ref="T53" si="30">SUMPRODUCT($E$2:$E$7,T35:T40)</f>
-        <v>0</v>
+        <f t="shared" ref="T53" si="33">SUMPRODUCT($E$2:$E$7,T35:T40)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
@@ -9044,17 +9246,17 @@
         <v>67</v>
       </c>
       <c r="R56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1">
         <v>0</v>
       </c>
       <c r="T56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56">
         <f>$R$33+E2 -1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56">
         <f>$S$33+E2-1</f>
@@ -9062,7 +9264,7 @@
       </c>
       <c r="X56">
         <f>$T$33+E2-1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -9076,16 +9278,16 @@
         <v>0</v>
       </c>
       <c r="V57">
-        <f t="shared" ref="V57:V61" si="31">$R$33+E3 -1</f>
-        <v>0</v>
+        <f t="shared" ref="V57:V61" si="34">$R$33+E3 -1</f>
+        <v>-1</v>
       </c>
       <c r="W57">
-        <f t="shared" ref="W57:W61" si="32">$S$33+E3-1</f>
+        <f t="shared" ref="W57:W61" si="35">$S$33+E3-1</f>
         <v>-1</v>
       </c>
       <c r="X57">
-        <f t="shared" ref="X57:X61" si="33">$T$33+E3-1</f>
-        <v>-1</v>
+        <f t="shared" ref="X57:X61" si="36">$T$33+E3-1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
@@ -9099,19 +9301,22 @@
         <v>0</v>
       </c>
       <c r="V58">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>-1</v>
       </c>
       <c r="W58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-1</v>
       </c>
       <c r="X58">
-        <f t="shared" si="33"/>
-        <v>-1</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>39</v>
+      </c>
       <c r="R59" s="1">
         <v>0</v>
       </c>
@@ -9119,42 +9324,54 @@
         <v>0</v>
       </c>
       <c r="T59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W59">
-        <f t="shared" si="32"/>
-        <v>-1</v>
+        <f t="shared" si="35"/>
+        <v>0</v>
       </c>
       <c r="X59">
-        <f t="shared" si="33"/>
-        <v>-1</v>
+        <f t="shared" si="36"/>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <f>SUM(R35:R38)</f>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f>SUM(S35:S38)</f>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f>SUM(T35:T38)</f>
+        <v>2</v>
+      </c>
       <c r="R60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1">
         <v>0</v>
       </c>
       <c r="T60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V60">
-        <f t="shared" si="31"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="W60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X60">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
@@ -9168,16 +9385,16 @@
         <v>0</v>
       </c>
       <c r="V61">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>-1</v>
       </c>
       <c r="W61">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-1</v>
       </c>
       <c r="X61">
-        <f t="shared" si="33"/>
-        <v>-1</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
@@ -9186,15 +9403,15 @@
       </c>
       <c r="R62">
         <f>SUM(R56:R61)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S62">
-        <f t="shared" ref="S62:T62" si="34">SUM(S56:S61)</f>
+        <f t="shared" ref="S62:T62" si="37">SUM(S56:S61)</f>
         <v>0</v>
       </c>
       <c r="T62">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/case1.xlsx
+++ b/case1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selim\Documents\Ofun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroGrids\Documents\Ofun\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA431F0D-600B-4ACB-AA88-0197087E62EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8775" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case1a" sheetId="1" r:id="rId1"/>
@@ -18,364 +19,604 @@
     <sheet name="Case1d" sheetId="6" r:id="rId4"/>
     <sheet name="Case1e" sheetId="8" r:id="rId5"/>
     <sheet name="Case1f" sheetId="12" r:id="rId6"/>
+    <sheet name="Case1f (2)" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="coin_cuttype" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="coin_cuttype" localSheetId="6" hidden="1">1</definedName>
     <definedName name="coin_dualtol" localSheetId="5" hidden="1">0.0000001</definedName>
+    <definedName name="coin_dualtol" localSheetId="6" hidden="1">0.0000001</definedName>
     <definedName name="coin_heurs" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="coin_heurs" localSheetId="6" hidden="1">1</definedName>
     <definedName name="coin_integerpresolve" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="coin_integerpresolve" localSheetId="6" hidden="1">1</definedName>
     <definedName name="coin_presolve1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="coin_presolve1" localSheetId="6" hidden="1">1</definedName>
     <definedName name="coin_primaltol" localSheetId="5" hidden="1">0.0000001</definedName>
+    <definedName name="coin_primaltol" localSheetId="6" hidden="1">0.0000001</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Case1a!$B$10:$G$15</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Case1b!$B$10:$G$15</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Case1c!$L$35:$T$43,Case1c!$R$33:$T$33</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">Case1d!$L$35:$T$43,Case1d!$R$33:$T$33,Case1d!$E$2:$E$7</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">Case1e!$L$22:$Q$22,Case1e!$R$33:$T$33,Case1e!$L$35:$T$43,Case1e!$E$2:$E$7</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">Case1f!$L$22:$Q$22,Case1f!$R$33:$T$33,Case1f!$L$35:$T$43,Case1f!$E$2:$E$7,Case1f!$U$4,Case1f!$R$56:$T$61</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'Case1f (2)'!$L$22:$Q$22,'Case1f (2)'!$R$33:$T$33,'Case1f (2)'!$L$35:$T$43,'Case1f (2)'!$E$2:$E$7,'Case1f (2)'!$U$4,'Case1f (2)'!$R$56:$T$61</definedName>
     <definedName name="solver_adj_ob" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_adj_ob" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_adj_ob1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_adj_ob1" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_adj1" localSheetId="5" hidden="1">Case1f!$R$46:$T$51</definedName>
+    <definedName name="solver_adj1" localSheetId="6" hidden="1">'Case1f (2)'!$R$46:$T$51</definedName>
     <definedName name="solver_cha" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_cha" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc1" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc1" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc10" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc10" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc11" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc11" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc12" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc12" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc13" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc13" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc14" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc14" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc15" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc15" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc16" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc16" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc17" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc17" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc18" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc18" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc19" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc19" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc2" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc2" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc20" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc20" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc21" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc21" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc22" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc22" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc23" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc23" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc24" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc24" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc25" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc25" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc26" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc26" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc27" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc27" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc28" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc28" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc29" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc29" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc3" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc3" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc30" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc30" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc31" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc31" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc32" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc32" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc33" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc33" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_chc34" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc4" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc4" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc5" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc5" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc6" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc6" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc7" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc7" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc8" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc8" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chc9" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chc9" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chn" localSheetId="5" hidden="1">4</definedName>
+    <definedName name="solver_chn" localSheetId="6" hidden="1">4</definedName>
     <definedName name="solver_chp1" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp1" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp10" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp10" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp11" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp11" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp12" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp12" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp13" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp13" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp14" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp14" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp15" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp15" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp16" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp16" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp17" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp17" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp18" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp18" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp19" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp19" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp2" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp2" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp20" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp20" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp21" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp21" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp22" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp22" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp23" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp23" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp24" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp24" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp25" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp25" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp26" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp26" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp27" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp27" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp28" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp28" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp29" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp29" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp3" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp3" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp30" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp30" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp31" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp31" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp32" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp32" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp33" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp33" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_chp34" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp4" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp4" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp5" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp5" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp6" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp6" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp7" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp7" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp8" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp8" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_chp9" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_chp9" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_cht" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_cht" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_cir1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir1" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir10" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir10" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir11" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir11" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir12" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir12" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir13" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir13" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir14" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir14" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir15" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir15" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir16" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir16" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir17" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir17" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir18" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir18" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir19" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir19" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir2" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir2" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir20" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir20" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir21" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir21" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir22" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir22" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir23" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir23" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir24" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir24" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir25" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir25" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir26" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir26" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir27" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir27" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir28" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir28" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir29" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir29" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir3" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir3" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir30" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir30" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir31" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir31" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir32" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir32" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir33" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir33" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_cir34" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir4" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir4" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir5" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir5" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir6" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir6" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir7" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir7" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir8" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir8" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_cir9" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_cir9" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_con" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con1" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con1" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con10" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con10" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con11" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con11" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con12" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con12" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con13" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con13" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con14" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con14" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con15" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con15" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con16" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con16" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con17" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con17" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con18" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con18" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con19" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con19" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con2" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con2" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con20" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con20" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con21" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con21" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con22" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con22" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con23" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con23" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con24" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con24" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con25" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con25" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con26" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con26" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con27" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con27" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con28" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con28" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con29" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con29" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con3" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con3" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con30" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con30" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con31" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con31" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con32" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con32" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con33" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con33" localSheetId="6" hidden="1">" "</definedName>
+    <definedName name="solver_con34" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con4" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con4" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con5" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con5" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con6" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con6" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con7" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con7" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con8" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con8" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_con9" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_con9" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_dia" localSheetId="5" hidden="1">5</definedName>
+    <definedName name="solver_dia" localSheetId="6" hidden="1">5</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_iao" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_iao" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_int" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_int" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_irs" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_irs" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_ism" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_ism" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_kiv" localSheetId="5" hidden="1">2E+30</definedName>
+    <definedName name="solver_kiv" localSheetId="6" hidden="1">2E+30</definedName>
     <definedName name="solver_lhs_ob1" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob1" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob10" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob10" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob11" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob11" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob12" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob12" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob13" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob13" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob14" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob14" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob15" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob15" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob16" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob16" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob17" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob17" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob18" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob18" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob19" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob19" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob2" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob2" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob20" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob20" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob21" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob21" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob22" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob22" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob23" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob23" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob24" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob24" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob25" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob25" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob26" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob26" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob27" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob27" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob28" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob28" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob29" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob29" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob3" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob3" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob30" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob30" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob31" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob31" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob32" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob32" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob33" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob33" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob34" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob4" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob4" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob5" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob5" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob6" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob6" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob7" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob7" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob8" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob8" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs_ob9" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_lhs_ob9" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Case1a!$A$23:$A$28</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Case1b!$A$23:$A$28</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">Case1c!$A$19:$A$27</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Case1d!$A$19:$A$27</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">Case1e!$A$19:$A$27</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">Case1f!$A$19:$A$27</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Case1f (2)'!$A$19:$A$27</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">Case1a!$G$16</definedName>
     <definedName name="solver_lhs10" localSheetId="1" hidden="1">Case1b!$H$15</definedName>
     <definedName name="solver_lhs10" localSheetId="2" hidden="1">Case1c!$U$35:$U$40</definedName>
     <definedName name="solver_lhs10" localSheetId="3" hidden="1">Case1d!$R$6</definedName>
     <definedName name="solver_lhs10" localSheetId="4" hidden="1">Case1e!$R$44:$T$44</definedName>
     <definedName name="solver_lhs10" localSheetId="5" hidden="1">Case1f!$R$56:$R$61</definedName>
+    <definedName name="solver_lhs10" localSheetId="6" hidden="1">'Case1f (2)'!$R$56:$T$61</definedName>
     <definedName name="solver_lhs11" localSheetId="0" hidden="1">Case1a!$H$15</definedName>
     <definedName name="solver_lhs11" localSheetId="1" hidden="1">Case1b!$H$15</definedName>
     <definedName name="solver_lhs11" localSheetId="2" hidden="1">Case1c!$U$41:$U$43</definedName>
     <definedName name="solver_lhs11" localSheetId="3" hidden="1">Case1d!$U$33</definedName>
     <definedName name="solver_lhs11" localSheetId="4" hidden="1">Case1e!$R$53:$T$53</definedName>
     <definedName name="solver_lhs11" localSheetId="5" hidden="1">Case1f!$R$56:$T$61</definedName>
+    <definedName name="solver_lhs11" localSheetId="6" hidden="1">'Case1f (2)'!$R$56:$R$61</definedName>
     <definedName name="solver_lhs12" localSheetId="3" hidden="1">Case1d!$U$35:$U$40</definedName>
     <definedName name="solver_lhs12" localSheetId="4" hidden="1">Case1e!$R$6</definedName>
     <definedName name="solver_lhs12" localSheetId="5" hidden="1">Case1f!$R$56:$R$61</definedName>
+    <definedName name="solver_lhs12" localSheetId="6" hidden="1">'Case1f (2)'!$R$6</definedName>
     <definedName name="solver_lhs13" localSheetId="3" hidden="1">Case1d!$U$41:$U$43</definedName>
     <definedName name="solver_lhs13" localSheetId="4" hidden="1">Case1e!$R$6</definedName>
     <definedName name="solver_lhs13" localSheetId="5" hidden="1">Case1f!$R$6</definedName>
+    <definedName name="solver_lhs13" localSheetId="6" hidden="1">'Case1f (2)'!$R$62:$T$62</definedName>
     <definedName name="solver_lhs14" localSheetId="4" hidden="1">Case1e!$U$33</definedName>
     <definedName name="solver_lhs14" localSheetId="5" hidden="1">Case1f!$R$62:$T$62</definedName>
+    <definedName name="solver_lhs14" localSheetId="6" hidden="1">'Case1f (2)'!$R$6</definedName>
     <definedName name="solver_lhs15" localSheetId="4" hidden="1">Case1e!$U$35:$U$40</definedName>
     <definedName name="solver_lhs15" localSheetId="5" hidden="1">Case1f!$R$6</definedName>
+    <definedName name="solver_lhs15" localSheetId="6" hidden="1">'Case1f (2)'!$S$56:$S$61</definedName>
     <definedName name="solver_lhs16" localSheetId="4" hidden="1">Case1e!$U$41:$U$43</definedName>
     <definedName name="solver_lhs16" localSheetId="5" hidden="1">Case1f!$S$56:$S$61</definedName>
+    <definedName name="solver_lhs16" localSheetId="6" hidden="1">'Case1f (2)'!$S$56:$S$61</definedName>
     <definedName name="solver_lhs17" localSheetId="4" hidden="1">Case1e!$X$35:$AC$40</definedName>
     <definedName name="solver_lhs17" localSheetId="5" hidden="1">Case1f!$S$56:$S$61</definedName>
+    <definedName name="solver_lhs17" localSheetId="6" hidden="1">'Case1f (2)'!$T$56:$T$61</definedName>
     <definedName name="solver_lhs18" localSheetId="5" hidden="1">Case1f!$T$56:$T$61</definedName>
+    <definedName name="solver_lhs18" localSheetId="6" hidden="1">'Case1f (2)'!$T$56:$T$61</definedName>
     <definedName name="solver_lhs19" localSheetId="5" hidden="1">Case1f!$T$56:$T$61</definedName>
+    <definedName name="solver_lhs19" localSheetId="6" hidden="1">'Case1f (2)'!$U$33</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Case1a!$B$10:$G$15</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Case1b!$B$10:$G$15</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">Case1c!$C$30</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">Case1d!$C$30:$C$44</definedName>
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">Case1e!$C$30:$C$44</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">Case1f!$C$30:$C$44</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Case1f (2)'!$C$30:$C$44</definedName>
     <definedName name="solver_lhs20" localSheetId="5" hidden="1">Case1f!$U$33</definedName>
+    <definedName name="solver_lhs20" localSheetId="6" hidden="1">'Case1f (2)'!$U$35:$U$40</definedName>
     <definedName name="solver_lhs21" localSheetId="5" hidden="1">Case1f!$U$35:$U$40</definedName>
+    <definedName name="solver_lhs21" localSheetId="6" hidden="1">'Case1f (2)'!$U$4</definedName>
     <definedName name="solver_lhs22" localSheetId="5" hidden="1">Case1f!$U$4</definedName>
+    <definedName name="solver_lhs22" localSheetId="6" hidden="1">'Case1f (2)'!$U$4</definedName>
     <definedName name="solver_lhs23" localSheetId="5" hidden="1">Case1f!$U$4</definedName>
+    <definedName name="solver_lhs23" localSheetId="6" hidden="1">'Case1f (2)'!$U$41:$U$43</definedName>
     <definedName name="solver_lhs24" localSheetId="5" hidden="1">Case1f!$U$41:$U$43</definedName>
+    <definedName name="solver_lhs24" localSheetId="6" hidden="1">'Case1f (2)'!$U$5</definedName>
     <definedName name="solver_lhs25" localSheetId="5" hidden="1">Case1f!$U$5</definedName>
+    <definedName name="solver_lhs25" localSheetId="6" hidden="1">'Case1f (2)'!$X$35:$AC$40</definedName>
     <definedName name="solver_lhs26" localSheetId="5" hidden="1">Case1f!$X$35:$AC$40</definedName>
+    <definedName name="solver_lhs26" localSheetId="6" hidden="1">'Case1f (2)'!$R$46:$T$51</definedName>
     <definedName name="solver_lhs27" localSheetId="5" hidden="1">Case1f!$R$46:$T$51</definedName>
+    <definedName name="solver_lhs27" localSheetId="6" hidden="1">'Case1f (2)'!$R$46:$T$51</definedName>
     <definedName name="solver_lhs28" localSheetId="5" hidden="1">Case1f!$R$46:$T$51</definedName>
+    <definedName name="solver_lhs28" localSheetId="6" hidden="1">'Case1f (2)'!$R$46:$R$51</definedName>
     <definedName name="solver_lhs29" localSheetId="5" hidden="1">Case1f!$R$46:$R$51</definedName>
+    <definedName name="solver_lhs29" localSheetId="6" hidden="1">'Case1f (2)'!$S$46:$S$51</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Case1a!$B$16</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">Case1b!$B$16:$C$16</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">Case1c!$L$35:$T$43</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">Case1d!$E$2:$E$7</definedName>
     <definedName name="solver_lhs3" localSheetId="4" hidden="1">Case1e!$E$2:$E$7</definedName>
     <definedName name="solver_lhs3" localSheetId="5" hidden="1">Case1f!$E$2:$E$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'Case1f (2)'!$E$2:$E$7</definedName>
     <definedName name="solver_lhs30" localSheetId="5" hidden="1">Case1f!$S$46:$S$51</definedName>
+    <definedName name="solver_lhs30" localSheetId="6" hidden="1">'Case1f (2)'!$T$46:$T$51</definedName>
     <definedName name="solver_lhs31" localSheetId="5" hidden="1">Case1f!$T$46:$T$51</definedName>
+    <definedName name="solver_lhs31" localSheetId="6" hidden="1">'Case1f (2)'!$R$46:$T$51</definedName>
     <definedName name="solver_lhs32" localSheetId="5" hidden="1">Case1f!$R$46:$T$51</definedName>
+    <definedName name="solver_lhs32" localSheetId="6" hidden="1">'Case1f (2)'!$R$52:$T$52</definedName>
     <definedName name="solver_lhs33" localSheetId="5" hidden="1">Case1f!$R$52:$T$52</definedName>
+    <definedName name="solver_lhs33" localSheetId="6" hidden="1">'Case1f (2)'!$L$22:$Q$22</definedName>
+    <definedName name="solver_lhs34" localSheetId="6" hidden="1">'Case1f (2)'!$L$22:$Q$22</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Case1a!$C$16:$F$16</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">Case1b!$C$30:$C$35</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">Case1c!$L$44:$O$44</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">Case1d!$L$35:$T$43</definedName>
     <definedName name="solver_lhs4" localSheetId="4" hidden="1">Case1e!$L$22:$Q$22</definedName>
     <definedName name="solver_lhs4" localSheetId="5" hidden="1">Case1f!$L$22:$Q$22</definedName>
+    <definedName name="solver_lhs4" localSheetId="6" hidden="1">'Case1f (2)'!$L$22:$Q$22</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Case1a!$C$30:$C$35</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">Case1b!$D$16:$F$16</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">Case1c!$P$44:$Q$44</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">Case1d!$L$44:$Q$44</definedName>
     <definedName name="solver_lhs5" localSheetId="4" hidden="1">Case1e!$L$22:$Q$22</definedName>
     <definedName name="solver_lhs5" localSheetId="5" hidden="1">Case1f!$L$22:$Q$22</definedName>
+    <definedName name="solver_lhs5" localSheetId="6" hidden="1">'Case1f (2)'!$L$22:$Q$22</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">Case1a!$G$10</definedName>
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">Case1b!$G$16</definedName>
     <definedName name="solver_lhs6" localSheetId="2" hidden="1">Case1c!$R$33:$T$33</definedName>
     <definedName name="solver_lhs6" localSheetId="3" hidden="1">Case1d!$R$33:$T$33</definedName>
     <definedName name="solver_lhs6" localSheetId="4" hidden="1">Case1e!$L$22:$Q$22</definedName>
     <definedName name="solver_lhs6" localSheetId="5" hidden="1">Case1f!$L$22:$Q$22</definedName>
+    <definedName name="solver_lhs6" localSheetId="6" hidden="1">'Case1f (2)'!$L$35:$T$43</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">Case1a!$G$16</definedName>
     <definedName name="solver_lhs7" localSheetId="1" hidden="1">Case1b!$G$30</definedName>
     <definedName name="solver_lhs7" localSheetId="2" hidden="1">Case1c!$R$44:$T$44</definedName>
     <definedName name="solver_lhs7" localSheetId="3" hidden="1">Case1d!$R$44:$T$44</definedName>
     <definedName name="solver_lhs7" localSheetId="4" hidden="1">Case1e!$L$35:$T$43</definedName>
     <definedName name="solver_lhs7" localSheetId="5" hidden="1">Case1f!$L$35:$T$43</definedName>
+    <definedName name="solver_lhs7" localSheetId="6" hidden="1">'Case1f (2)'!$L$44:$Q$44</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">Case1a!$H$10:$H$14</definedName>
     <definedName name="solver_lhs8" localSheetId="1" hidden="1">Case1b!$H$10:$H$14</definedName>
     <definedName name="solver_lhs8" localSheetId="2" hidden="1">Case1c!$R$48:$T$48</definedName>
     <definedName name="solver_lhs8" localSheetId="3" hidden="1">Case1d!$R$53:$T$53</definedName>
     <definedName name="solver_lhs8" localSheetId="4" hidden="1">Case1e!$L$44:$Q$44</definedName>
     <definedName name="solver_lhs8" localSheetId="5" hidden="1">Case1f!$L$44:$Q$44</definedName>
+    <definedName name="solver_lhs8" localSheetId="6" hidden="1">'Case1f (2)'!$R$33:$T$33</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">Case1a!$H$15</definedName>
     <definedName name="solver_lhs9" localSheetId="1" hidden="1">Case1b!$H$15</definedName>
     <definedName name="solver_lhs9" localSheetId="2" hidden="1">Case1c!$U$33</definedName>
     <definedName name="solver_lhs9" localSheetId="3" hidden="1">Case1d!$R$6</definedName>
     <definedName name="solver_lhs9" localSheetId="4" hidden="1">Case1e!$R$33:$T$33</definedName>
     <definedName name="solver_lhs9" localSheetId="5" hidden="1">Case1f!$R$33:$T$33</definedName>
+    <definedName name="solver_lhs9" localSheetId="6" hidden="1">'Case1f (2)'!$R$56:$R$61</definedName>
     <definedName name="solver_lin" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_mda" localSheetId="5" hidden="1">4</definedName>
+    <definedName name="solver_mda" localSheetId="6" hidden="1">4</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mod" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_mod" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_ntr" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_ntr" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_ntri" hidden="1">1000</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">9</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">9</definedName>
@@ -383,222 +624,326 @@
     <definedName name="solver_num" localSheetId="3" hidden="1">13</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">17</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">33</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">34</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_obc" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_obc" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_obp" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_obp" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Case1a!$I$1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Case1b!$N$1</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Case1c!$R$1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">Case1d!$R$1</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">Case1e!$R$1</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">Case1f!$R$1</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Case1f (2)'!$R$1</definedName>
     <definedName name="solver_opt_ob" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_opt_ob" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_psi" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_psi" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rdp" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rdp" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco1" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco1" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco10" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco10" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco11" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco11" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco12" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco12" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco13" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco13" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco14" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco14" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco15" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco15" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco16" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco16" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco17" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco17" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco18" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco18" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco19" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco19" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco2" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco2" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco20" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco20" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco21" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco21" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco22" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco22" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco23" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco23" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco24" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco24" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco25" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco25" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco26" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco26" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco27" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco27" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco28" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco28" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco29" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco29" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco3" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco3" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco30" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco30" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco31" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco31" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco32" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco32" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco33" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco33" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_reco34" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco4" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco4" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco5" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco5" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco6" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco6" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco7" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco7" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco8" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco8" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_reco9" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_reco9" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel10" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel11" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel11" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel11" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel11" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel11" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel12" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel12" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel12" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel12" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel13" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel13" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel13" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel13" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel14" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel14" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel14" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_rel15" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel15" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel15" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel16" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel16" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel16" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel17" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel17" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel17" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel18" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel18" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel19" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel19" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel20" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel20" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel21" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel21" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel22" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel22" localSheetId="6" hidden="1">5</definedName>
     <definedName name="solver_rel23" localSheetId="5" hidden="1">5</definedName>
+    <definedName name="solver_rel23" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel24" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel24" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_rel25" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel25" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_rel26" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel26" localSheetId="6" hidden="1">5</definedName>
     <definedName name="solver_rel27" localSheetId="5" hidden="1">5</definedName>
+    <definedName name="solver_rel27" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel28" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel28" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel29" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel29" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_rel3" localSheetId="4" hidden="1">5</definedName>
     <definedName name="solver_rel3" localSheetId="5" hidden="1">5</definedName>
+    <definedName name="solver_rel3" localSheetId="6" hidden="1">5</definedName>
     <definedName name="solver_rel30" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel30" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel31" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel31" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_rel32" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel32" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel33" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel33" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel34" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_rel4" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="6" hidden="1">4</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="4" hidden="1">4</definedName>
     <definedName name="solver_rel5" localSheetId="5" hidden="1">4</definedName>
+    <definedName name="solver_rel5" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_rel6" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_rel6" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="6" hidden="1">5</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="4" hidden="1">5</definedName>
     <definedName name="solver_rel7" localSheetId="5" hidden="1">5</definedName>
+    <definedName name="solver_rel7" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="6" hidden="1">5</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="4" hidden="1">5</definedName>
     <definedName name="solver_rel9" localSheetId="5" hidden="1">5</definedName>
+    <definedName name="solver_rel9" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rep" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rep" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs10" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs10" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs10" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rhs10" localSheetId="4" hidden="1">Case1e!$R$32:$T$32</definedName>
     <definedName name="solver_rhs10" localSheetId="5" hidden="1">Case1f!$E$2:$E$7</definedName>
+    <definedName name="solver_rhs10" localSheetId="6" hidden="1">'Case1f (2)'!$V$56:$X$61</definedName>
     <definedName name="solver_rhs11" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs11" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs11" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs11" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rhs11" localSheetId="4" hidden="1">Case1e!$R$8</definedName>
     <definedName name="solver_rhs11" localSheetId="5" hidden="1">Case1f!$V$56:$X$61</definedName>
+    <definedName name="solver_rhs11" localSheetId="6" hidden="1">'Case1f (2)'!$R$33</definedName>
     <definedName name="solver_rhs12" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rhs12" localSheetId="4" hidden="1">Case1e!$R$5</definedName>
     <definedName name="solver_rhs12" localSheetId="5" hidden="1">Case1f!$R$33</definedName>
+    <definedName name="solver_rhs12" localSheetId="6" hidden="1">'Case1f (2)'!$R$5</definedName>
     <definedName name="solver_rhs13" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs13" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rhs13" localSheetId="5" hidden="1">Case1f!$R$5</definedName>
+    <definedName name="solver_rhs13" localSheetId="6" hidden="1">'Case1f (2)'!$R$44:$T$44</definedName>
     <definedName name="solver_rhs14" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rhs14" localSheetId="5" hidden="1">Case1f!$R$44:$T$44</definedName>
+    <definedName name="solver_rhs14" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rhs15" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rhs15" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rhs15" localSheetId="6" hidden="1">'Case1f (2)'!$E$2:$E$7</definedName>
     <definedName name="solver_rhs16" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rhs16" localSheetId="5" hidden="1">Case1f!$E$2:$E$7</definedName>
+    <definedName name="solver_rhs16" localSheetId="6" hidden="1">'Case1f (2)'!$S$33</definedName>
     <definedName name="solver_rhs17" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rhs17" localSheetId="5" hidden="1">Case1f!$S$33</definedName>
+    <definedName name="solver_rhs17" localSheetId="6" hidden="1">'Case1f (2)'!$E$2:$E$7</definedName>
     <definedName name="solver_rhs18" localSheetId="5" hidden="1">Case1f!$E$2:$E$7</definedName>
+    <definedName name="solver_rhs18" localSheetId="6" hidden="1">'Case1f (2)'!$T$33</definedName>
     <definedName name="solver_rhs19" localSheetId="5" hidden="1">Case1f!$T$33</definedName>
+    <definedName name="solver_rhs19" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">binaire</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">binaire</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rhs2" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rhs20" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rhs20" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rhs21" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rhs21" localSheetId="6" hidden="1">'Case1f (2)'!$U$2</definedName>
     <definedName name="solver_rhs22" localSheetId="5" hidden="1">Case1f!$U$2</definedName>
+    <definedName name="solver_rhs23" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rhs24" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rhs24" localSheetId="6" hidden="1">'Case1f (2)'!$U$2</definedName>
     <definedName name="solver_rhs25" localSheetId="5" hidden="1">Case1f!$U$2</definedName>
+    <definedName name="solver_rhs25" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rhs26" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rhs27" localSheetId="6" hidden="1">'Case1f (2)'!$R$35:$T$40</definedName>
     <definedName name="solver_rhs28" localSheetId="5" hidden="1">Case1f!$R$35:$T$40</definedName>
+    <definedName name="solver_rhs28" localSheetId="6" hidden="1">'Case1f (2)'!$E$2:$E$7</definedName>
     <definedName name="solver_rhs29" localSheetId="5" hidden="1">Case1f!$E$2:$E$7</definedName>
+    <definedName name="solver_rhs29" localSheetId="6" hidden="1">'Case1f (2)'!$E$2:$E$7</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">binaire</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">binaire</definedName>
     <definedName name="solver_rhs3" localSheetId="4" hidden="1">binaire</definedName>
     <definedName name="solver_rhs30" localSheetId="5" hidden="1">Case1f!$E$2:$E$7</definedName>
+    <definedName name="solver_rhs30" localSheetId="6" hidden="1">'Case1f (2)'!$E$2:$E$7</definedName>
     <definedName name="solver_rhs31" localSheetId="5" hidden="1">Case1f!$E$2:$E$7</definedName>
+    <definedName name="solver_rhs31" localSheetId="6" hidden="1">'Case1f (2)'!$V$46:$X$51</definedName>
     <definedName name="solver_rhs32" localSheetId="5" hidden="1">Case1f!$V$46:$X$51</definedName>
+    <definedName name="solver_rhs32" localSheetId="6" hidden="1">'Case1f (2)'!$R$8</definedName>
     <definedName name="solver_rhs33" localSheetId="5" hidden="1">Case1f!$R$8</definedName>
+    <definedName name="solver_rhs33" localSheetId="6" hidden="1">'Case1f (2)'!$R$11</definedName>
+    <definedName name="solver_rhs34" localSheetId="6" hidden="1">'Case1f (2)'!$R$5</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">0</definedName>
@@ -610,6 +955,7 @@
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">Case1d!$L$50:$Q$50</definedName>
     <definedName name="solver_rhs5" localSheetId="4" hidden="1">entier</definedName>
+    <definedName name="solver_rhs5" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">Case1b!$N$6</definedName>
     <definedName name="solver_rhs6" localSheetId="2" hidden="1">binaire</definedName>
@@ -621,6 +967,7 @@
     <definedName name="solver_rhs7" localSheetId="2" hidden="1">Case1c!$R$32:$T$32</definedName>
     <definedName name="solver_rhs7" localSheetId="3" hidden="1">Case1d!$R$32:$T$32</definedName>
     <definedName name="solver_rhs7" localSheetId="4" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs7" localSheetId="6" hidden="1">'Case1f (2)'!$L$50:$Q$50</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs8" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs8" localSheetId="2" hidden="1">Case1c!$R$8</definedName>
@@ -632,126 +979,189 @@
     <definedName name="solver_rhs9" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs9" localSheetId="3" hidden="1">Case1d!$R$5</definedName>
     <definedName name="solver_rhs9" localSheetId="4" hidden="1">binaire</definedName>
+    <definedName name="solver_rhs9" localSheetId="6" hidden="1">'Case1f (2)'!$E$2:$E$7</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rsmp" hidden="1">2</definedName>
     <definedName name="solver_rtr" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rtr" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rxc1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc1" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc10" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc10" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc11" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc11" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc12" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc12" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc13" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc13" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc14" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc14" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc15" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc15" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc16" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc16" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc17" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc17" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc18" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc18" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc19" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc19" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc2" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc2" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc20" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc20" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc21" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc21" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc22" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc22" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc23" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc23" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc24" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc24" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc25" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc25" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc26" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc26" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc27" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc27" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc28" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc28" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc29" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc29" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc3" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc3" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc30" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc30" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc31" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc31" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc32" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc32" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc33" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc33" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rxc34" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc4" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc4" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc5" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc5" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc6" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc6" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc7" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc7" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc8" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc8" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxc9" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxc9" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rxv1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rxv1" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_seed" hidden="1">0</definedName>
     <definedName name="solver_sel" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_sel" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_slv" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_slv" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_slvu" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_slvu" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_spid" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_spid" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_srvr" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_srvr" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_umod" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_umod" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_urs" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_urs" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_userid" localSheetId="0" hidden="1">" "</definedName>
     <definedName name="solver_userid" localSheetId="1" hidden="1">" "</definedName>
     <definedName name="solver_userid" localSheetId="2" hidden="1">" "</definedName>
     <definedName name="solver_userid" localSheetId="3" hidden="1">" "</definedName>
     <definedName name="solver_userid" localSheetId="4" hidden="1">" "</definedName>
     <definedName name="solver_userid" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_userid" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_var" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_var" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_var1" localSheetId="5" hidden="1">" "</definedName>
+    <definedName name="solver_var1" localSheetId="6" hidden="1">" "</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">17</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">17</definedName>
     <definedName name="solver_vir" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_vir" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_vir1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_vir1" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_vol" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_vol" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_vst" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_vst" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_vst1" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_vst1" localSheetId="6" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -766,7 +1176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="79">
   <si>
     <t>distance matrix</t>
   </si>
@@ -998,11 +1408,17 @@
   <si>
     <t>ai*bij</t>
   </si>
+  <si>
+    <t>Nperso/car</t>
+  </si>
+  <si>
+    <t>CONTRAINTE LIEE AUX BOUCLES ET NB DE PERSONNES/VOIT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1130,7 +1546,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1181,26 +1606,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="F1:L7" totalsRowShown="0">
-  <autoFilter ref="F1:L7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="F1:L7" totalsRowShown="0">
+  <autoFilter ref="F1:L7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="distance matrix"/>
-    <tableColumn id="2" name="A">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="distance matrix"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="A">
       <calculatedColumnFormula>SQRT((C$2-C2)^2+(D$2-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="B">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="B">
       <calculatedColumnFormula>SQRT((C$3-C2)^2+(D$3-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="1">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="1">
       <calculatedColumnFormula>SQRT((C$4-C2)^2+(D$4-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2">
       <calculatedColumnFormula>SQRT((C$5-C2)^2+(D$5-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="3">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="3">
       <calculatedColumnFormula>SQRT((C$6-C2)^2+(D$6-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="destination">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="destination">
       <calculatedColumnFormula>SQRT((C$7-C2)^2+(D$7-D2)^2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1209,59 +1634,108 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tableau35117917" displayName="Tableau35117917" ref="B1:D10" totalsRowShown="0">
-  <autoFilter ref="B1:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tableau35117917" displayName="Tableau35117917" ref="B1:D10" totalsRowShown="0">
+  <autoFilter ref="B1:D10" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Coordonnées"/>
-    <tableColumn id="2" name="x"/>
-    <tableColumn id="3" name="y"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Coordonnées"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="x"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="y"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{EA5DAFC2-C78C-448F-A3DE-4F7E748A39A1}" name="Tableau221068168" displayName="Tableau221068168" ref="F1:O10" totalsRowShown="0">
+  <autoFilter ref="F1:O10" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{6EB617A4-5F42-425E-ABDC-CF67CC4CFFEE}" name="distance matrix"/>
+    <tableColumn id="2" xr3:uid="{6FBC37FF-F2C4-41D1-BD22-C6D05B432C8F}" name="1">
+      <calculatedColumnFormula>SQRT((C$2-C2)^2+(D$2-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D6FE67F2-A14C-4E38-ABCE-43324A3AC724}" name="2">
+      <calculatedColumnFormula>SQRT((C$3-C2)^2+(D$3-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{EAF1B40A-1453-443B-B100-245DBA4572FB}" name="3">
+      <calculatedColumnFormula>SQRT((C$4-C2)^2+(D$4-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{9684ADB7-5969-4E7F-9546-AC7EB7CF5C30}" name="4">
+      <calculatedColumnFormula>SQRT((C$5-C2)^2+(D$5-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{56F5B45A-5CD5-424B-BBDC-405F78568EF9}" name="5">
+      <calculatedColumnFormula>SQRT((C$6-C2)^2+(D$6-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{B6468135-690C-4BA6-A085-111786BE07DE}" name="6">
+      <calculatedColumnFormula>SQRT((C$7-C2)^2+(D$7-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{34242D67-8679-402A-A689-64507ABD967B}" name="D1" dataDxfId="2">
+      <calculatedColumnFormula>SQRT((C$8-C2)^2+(D$8-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{72CCDA19-2641-4B73-8F24-B57A12E2B7E2}" name="D2" dataDxfId="1">
+      <calculatedColumnFormula>SQRT((C$9-C2)^2+(D$9-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{E385F211-CF1B-469F-8FCE-3D1C38958588}" name="D3" dataDxfId="0">
+      <calculatedColumnFormula>SQRT((C$10-C2)^2+(D$10-D2)^2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{13B06D46-764A-49A6-AD60-AD13059B5AB9}" name="Tableau351179179" displayName="Tableau351179179" ref="B1:D10" totalsRowShown="0">
+  <autoFilter ref="B1:D10" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1AAF7277-8A1E-4F57-A5F0-73D7C6035EAD}" name="Coordonnées"/>
+    <tableColumn id="2" xr3:uid="{A85FD14B-2FC2-4C9F-BEE8-13E9F8D7B711}" name="x"/>
+    <tableColumn id="3" xr3:uid="{6052FB1E-D5D8-4FF0-B8C9-A1DFD40AEB6C}" name="y"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B1:D7" totalsRowShown="0">
-  <autoFilter ref="B1:D7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau3" displayName="Tableau3" ref="B1:D7" totalsRowShown="0">
+  <autoFilter ref="B1:D7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Coordonnées"/>
-    <tableColumn id="2" name="x"/>
-    <tableColumn id="3" name="y"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Coordonnées"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="x"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="y"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau22" displayName="Tableau22" ref="F1:O10" totalsRowShown="0">
-  <autoFilter ref="F1:O10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau22" displayName="Tableau22" ref="F1:O10" totalsRowShown="0">
+  <autoFilter ref="F1:O10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="distance matrix"/>
-    <tableColumn id="2" name="S1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="distance matrix"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="S1">
       <calculatedColumnFormula>SQRT((C$2-C2)^2+(D$2-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="S2">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="S2">
       <calculatedColumnFormula>SQRT((C$3-C2)^2+(D$3-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="S3">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="S3">
       <calculatedColumnFormula>SQRT((C$4-C2)^2+(D$4-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="S4">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="S4">
       <calculatedColumnFormula>SQRT((C$5-C2)^2+(D$5-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="1">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="1">
       <calculatedColumnFormula>SQRT((C$6-C2)^2+(D$6-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="2">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="2">
       <calculatedColumnFormula>SQRT((C$7-C2)^2+(D$7-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="D1" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="D1" dataDxfId="14">
       <calculatedColumnFormula>SQRT((C$8-C2)^2+(D$8-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="D2" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="D2" dataDxfId="13">
       <calculatedColumnFormula>SQRT((C$9-C2)^2+(D$9-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="D3" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="D3" dataDxfId="12">
       <calculatedColumnFormula>SQRT((C$10-C2)^2+(D$10-D2)^2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1270,47 +1744,47 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau35" displayName="Tableau35" ref="B1:D10" totalsRowShown="0">
-  <autoFilter ref="B1:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau35" displayName="Tableau35" ref="B1:D10" totalsRowShown="0">
+  <autoFilter ref="B1:D10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Coordonnées"/>
-    <tableColumn id="2" name="x"/>
-    <tableColumn id="3" name="y"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Coordonnées"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="x"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="y"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau2210" displayName="Tableau2210" ref="F1:O10" totalsRowShown="0">
-  <autoFilter ref="F1:O10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2210" displayName="Tableau2210" ref="F1:O10" totalsRowShown="0">
+  <autoFilter ref="F1:O10" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="distance matrix"/>
-    <tableColumn id="2" name="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="distance matrix"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="1">
       <calculatedColumnFormula>SQRT((C$2-C2)^2+(D$2-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="2">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="2">
       <calculatedColumnFormula>SQRT((C$3-C2)^2+(D$3-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="3">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="3">
       <calculatedColumnFormula>SQRT((C$4-C2)^2+(D$4-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="4">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="4">
       <calculatedColumnFormula>SQRT((C$5-C2)^2+(D$5-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="5">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="5">
       <calculatedColumnFormula>SQRT((C$6-C2)^2+(D$6-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="6">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="6">
       <calculatedColumnFormula>SQRT((C$7-C2)^2+(D$7-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="D1" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="D1" dataDxfId="11">
       <calculatedColumnFormula>SQRT((C$8-C2)^2+(D$8-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="D2" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="D2" dataDxfId="10">
       <calculatedColumnFormula>SQRT((C$9-C2)^2+(D$9-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="D3" dataDxfId="6">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="D3" dataDxfId="9">
       <calculatedColumnFormula>SQRT((C$10-C2)^2+(D$10-D2)^2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1319,47 +1793,47 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tableau3511" displayName="Tableau3511" ref="B1:D10" totalsRowShown="0">
-  <autoFilter ref="B1:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tableau3511" displayName="Tableau3511" ref="B1:D10" totalsRowShown="0">
+  <autoFilter ref="B1:D10" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Coordonnées"/>
-    <tableColumn id="2" name="x"/>
-    <tableColumn id="3" name="y"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Coordonnées"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="x"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="y"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau22106" displayName="Tableau22106" ref="F1:O10" totalsRowShown="0">
-  <autoFilter ref="F1:O10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tableau22106" displayName="Tableau22106" ref="F1:O10" totalsRowShown="0">
+  <autoFilter ref="F1:O10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="distance matrix"/>
-    <tableColumn id="2" name="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="distance matrix"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="1">
       <calculatedColumnFormula>SQRT((C$2-C2)^2+(D$2-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="2">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="2">
       <calculatedColumnFormula>SQRT((C$3-C2)^2+(D$3-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="3">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="3">
       <calculatedColumnFormula>SQRT((C$4-C2)^2+(D$4-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="4">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="4">
       <calculatedColumnFormula>SQRT((C$5-C2)^2+(D$5-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="5">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="5">
       <calculatedColumnFormula>SQRT((C$6-C2)^2+(D$6-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="6">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="6">
       <calculatedColumnFormula>SQRT((C$7-C2)^2+(D$7-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="D1" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="D1" dataDxfId="8">
       <calculatedColumnFormula>SQRT((C$8-C2)^2+(D$8-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="D2" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="D2" dataDxfId="7">
       <calculatedColumnFormula>SQRT((C$9-C2)^2+(D$9-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="D3" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="D3" dataDxfId="6">
       <calculatedColumnFormula>SQRT((C$10-C2)^2+(D$10-D2)^2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1368,47 +1842,47 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau35117" displayName="Tableau35117" ref="B1:D10" totalsRowShown="0">
-  <autoFilter ref="B1:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tableau35117" displayName="Tableau35117" ref="B1:D10" totalsRowShown="0">
+  <autoFilter ref="B1:D10" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Coordonnées"/>
-    <tableColumn id="2" name="x"/>
-    <tableColumn id="3" name="y"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Coordonnées"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="x"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="y"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tableau22106816" displayName="Tableau22106816" ref="F1:O10" totalsRowShown="0">
-  <autoFilter ref="F1:O10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tableau22106816" displayName="Tableau22106816" ref="F1:O10" totalsRowShown="0">
+  <autoFilter ref="F1:O10" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="distance matrix"/>
-    <tableColumn id="2" name="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="distance matrix"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="1">
       <calculatedColumnFormula>SQRT((C$2-C2)^2+(D$2-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="2">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="2">
       <calculatedColumnFormula>SQRT((C$3-C2)^2+(D$3-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="3">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="3">
       <calculatedColumnFormula>SQRT((C$4-C2)^2+(D$4-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="4">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="4">
       <calculatedColumnFormula>SQRT((C$5-C2)^2+(D$5-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="5">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="5">
       <calculatedColumnFormula>SQRT((C$6-C2)^2+(D$6-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="6">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="6">
       <calculatedColumnFormula>SQRT((C$7-C2)^2+(D$7-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="D1" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="D1" dataDxfId="5">
       <calculatedColumnFormula>SQRT((C$8-C2)^2+(D$8-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="D2" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="D2" dataDxfId="4">
       <calculatedColumnFormula>SQRT((C$9-C2)^2+(D$9-D2)^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="D3" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="D3" dataDxfId="3">
       <calculatedColumnFormula>SQRT((C$10-C2)^2+(D$10-D2)^2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1712,16 +2186,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +2225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1774,7 +2248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1797,7 +2271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1820,7 +2294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1843,7 +2317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1866,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1889,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1915,7 +2389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1948,7 +2422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1975,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2002,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2029,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2056,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2086,7 +2560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2115,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -2123,12 +2597,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2136,7 +2610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f>B10</f>
         <v>0</v>
@@ -2148,42 +2622,42 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <f>C11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <f>D12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <f>E13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <f>F14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <f>G15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <f>C12</f>
         <v>0</v>
@@ -2197,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <f>C13</f>
         <v>0</v>
@@ -2211,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <f>C14</f>
         <v>1</v>
@@ -2225,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <f>D13</f>
         <v>1</v>
@@ -2239,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <f>D14</f>
         <v>0</v>
@@ -2253,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <f>E14</f>
         <v>0</v>
@@ -2267,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -2278,20 +2752,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2333,7 +2807,7 @@
         <v>9.3851648071345046</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2374,7 +2848,7 @@
         <v>2.6925824035672519</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -2412,7 +2886,7 @@
         <v>2.6925824035672519</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2453,7 +2927,7 @@
         <v>2.6925824035672519</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2497,7 +2971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2541,7 +3015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -2586,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="M8" t="s">
         <v>37</v>
       </c>
@@ -2595,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2621,7 +3095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2654,7 +3128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2681,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2708,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2735,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2762,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2792,7 +3266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2821,7 +3295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -2829,12 +3303,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2842,7 +3316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f>B10</f>
         <v>0</v>
@@ -2857,37 +3331,37 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <f>C11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <f>D12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <f>E13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <f>F14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <f>G15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2895,7 +3369,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <f>C12</f>
         <v>0</v>
@@ -2913,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <f>C13</f>
         <v>0</v>
@@ -2927,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <f>C14</f>
         <v>0</v>
@@ -2941,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <f>D13</f>
         <v>0</v>
@@ -2955,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <f>D14</f>
         <v>0</v>
@@ -2969,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <f>E14</f>
         <v>1</v>
@@ -2993,20 +3467,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -3057,7 +3531,7 @@
         <v>78.065667847828223</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -3110,7 +3584,7 @@
         <v>39.293765408776999</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -3160,7 +3634,7 @@
         <v>27.856776554368238</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -3219,7 +3693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -3275,7 +3749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>1</v>
       </c>
@@ -3331,7 +3805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>2</v>
       </c>
@@ -3388,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -3445,7 +3919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -3495,7 +3969,7 @@
         <v>18.248287590894659</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -3548,25 +4022,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f>L35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <f>M36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f>N37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <f>O38</f>
         <v>0</v>
@@ -3575,7 +4049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f>P39</f>
         <v>0</v>
@@ -3587,36 +4061,36 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <f>Q40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <f>R41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <f>S42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <f>T43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <f>P40</f>
         <v>0</v>
@@ -3630,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="R32">
         <f>R33*R$6</f>
         <v>0</v>
@@ -3647,7 +4121,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="R33" s="1">
         <v>0</v>
       </c>
@@ -3662,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -3700,7 +4174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K35" t="s">
         <v>49</v>
       </c>
@@ -3736,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K36" t="s">
         <v>41</v>
       </c>
@@ -3772,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K37" t="s">
         <v>42</v>
       </c>
@@ -3808,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K38" t="s">
         <v>43</v>
       </c>
@@ -3844,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K39">
         <v>1</v>
       </c>
@@ -3880,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K40">
         <v>2</v>
       </c>
@@ -3916,7 +4390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K41" t="s">
         <v>44</v>
       </c>
@@ -3952,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K42" t="s">
         <v>45</v>
       </c>
@@ -3988,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K43" t="s">
         <v>46</v>
       </c>
@@ -4024,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="K44" t="s">
         <v>51</v>
       </c>
@@ -4065,12 +4539,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="R47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="R48">
         <f>SUM(R35:R38)</f>
         <v>0</v>
@@ -4094,20 +4568,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -4161,7 +4635,7 @@
         <v>33.230020162842422</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -4217,7 +4691,7 @@
         <v>39.293765408776999</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
         <v>2</v>
       </c>
@@ -4270,7 +4744,7 @@
         <v>27.856776554368238</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -4332,7 +4806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>4</v>
       </c>
@@ -4391,7 +4865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>5</v>
       </c>
@@ -4451,7 +4925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>6</v>
       </c>
@@ -4511,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -4568,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -4618,7 +5092,7 @@
         <v>18.248287590894659</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -4671,24 +5145,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="K16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f>L35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <f>M36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f>N37</f>
         <v>0</v>
@@ -4697,7 +5171,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <f>O38</f>
         <v>0</v>
@@ -4706,7 +5180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f>P39</f>
         <v>0</v>
@@ -4718,36 +5192,36 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <f>Q40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <f>R41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <f>S42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <f>T43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10">
         <f>L36</f>
         <v>1</v>
@@ -4761,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10">
         <f t="shared" ref="A31:A34" si="9">L37</f>
         <v>0</v>
@@ -4775,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4804,7 +5278,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4831,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4878,7 +5352,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11">
         <f>M37</f>
         <v>0</v>
@@ -4926,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11">
         <f t="shared" ref="A36:A38" si="12">M38</f>
         <v>0</v>
@@ -4974,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -5022,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5070,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3">
         <f>N38</f>
         <v>0</v>
@@ -5118,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
         <f t="shared" ref="A40:A41" si="13">N39</f>
         <v>0</v>
@@ -5166,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -5214,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12">
         <f>O39</f>
         <v>0</v>
@@ -5262,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="12">
         <f>O40</f>
         <v>1</v>
@@ -5310,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <f>P40</f>
         <v>0</v>
@@ -5363,7 +5837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -5371,7 +5845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="R48">
         <f>SUM(R35:R38)</f>
         <v>0</v>
@@ -5385,7 +5859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K50" t="s">
         <v>59</v>
       </c>
@@ -5414,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P53" t="s">
         <v>60</v>
       </c>
@@ -5441,20 +5915,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC53"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -5508,7 +5982,7 @@
         <v>82.564445947540335</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -5564,7 +6038,7 @@
         <v>39.293765408776999</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
         <v>2</v>
       </c>
@@ -5617,7 +6091,7 @@
         <v>27.856776554368238</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -5679,7 +6153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>4</v>
       </c>
@@ -5738,7 +6212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>5</v>
       </c>
@@ -5798,7 +6272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>6</v>
       </c>
@@ -5858,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -5915,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -5965,7 +6439,7 @@
         <v>18.248287590894659</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -6018,24 +6492,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="K16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f>L35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <f>M36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f>N37</f>
         <v>0</v>
@@ -6044,7 +6518,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <f>O38</f>
         <v>0</v>
@@ -6071,7 +6545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f>P39</f>
         <v>0</v>
@@ -6083,7 +6557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <f>Q40</f>
         <v>0</v>
@@ -6141,7 +6615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <f>R41</f>
         <v>0</v>
@@ -6199,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <f>S42</f>
         <v>0</v>
@@ -6257,7 +6731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <f>T43</f>
         <v>0</v>
@@ -6315,7 +6789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="L28">
         <f t="shared" si="10"/>
         <v>2</v>
@@ -6369,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -6426,7 +6900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10">
         <f>L36</f>
         <v>0</v>
@@ -6440,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10">
         <f t="shared" ref="A31:A34" si="21">L37</f>
         <v>0</v>
@@ -6454,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -6483,7 +6957,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10">
         <f t="shared" si="21"/>
         <v>1</v>
@@ -6510,7 +6984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -6557,7 +7031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11">
         <f>M37</f>
         <v>0</v>
@@ -6629,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11">
         <f t="shared" ref="A36:A38" si="25">M38</f>
         <v>0</v>
@@ -6701,7 +7175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -6773,7 +7247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -6845,7 +7319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3">
         <f>N38</f>
         <v>0</v>
@@ -6917,7 +7391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
         <f t="shared" ref="A40:A41" si="27">N39</f>
         <v>0</v>
@@ -6989,7 +7463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
         <f t="shared" si="27"/>
         <v>1</v>
@@ -7037,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12">
         <f>O39</f>
         <v>0</v>
@@ -7085,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="12">
         <f>O40</f>
         <v>0</v>
@@ -7133,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <f>P40</f>
         <v>0</v>
@@ -7186,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -7194,7 +7668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="R48">
         <f>SUM(R35:R38)</f>
         <v>2</v>
@@ -7208,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K50" t="s">
         <v>59</v>
       </c>
@@ -7237,7 +7711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="11:20" x14ac:dyDescent="0.55000000000000004">
       <c r="P53" t="s">
         <v>60</v>
       </c>
@@ -7264,20 +7738,2180 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AC62"/>
+  <sheetViews>
+    <sheetView topLeftCell="F7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="12" max="12" width="11.83984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="8">
+        <f>SUMPRODUCT(G2:O10,L35:T43)</f>
+        <v>1014.1342524532591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>SQRT((C$2-C2)^2+(D$2-D2)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SQRT((C$3-C2)^2+(D$3-D2)^2)</f>
+        <v>988</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I7" si="0">SQRT((C$4-C2)^2+(D$4-D2)^2)</f>
+        <v>960.05208192055909</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J7" si="1">SQRT((C$5-C2)^2+(D$5-D2)^2)</f>
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K7" si="2">SQRT((C$6-C2)^2+(D$6-D2)^2)</f>
+        <v>1000.001999998</v>
+      </c>
+      <c r="L2">
+        <f>SQRT((C$7-C2)^2+(D$7-D2)^2)</f>
+        <v>958.06315031943484</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M10" si="3">SQRT((C$8-C2)^2+(D$8-D2)^2)</f>
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N10" si="4">SQRT((C$9-C2)^2+(D$9-D2)^2)</f>
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O10" si="5">SQRT((C$10-C2)^2+(D$10-D2)^2)</f>
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2">
+        <f>R5-R6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="6">SQRT((C$2-C3)^2+(D$2-D3)^2)</f>
+        <v>988</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="7">SQRT((C$3-C3)^2+(D$3-D3)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>29.732137494637012</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>988.07287180652827</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="2"/>
+        <v>12.165525060596439</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L7" si="8">SQRT((C$7-C3)^2+(D$7-D3)^2)</f>
+        <v>31.953090617340916</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="3"/>
+        <v>988.00202428942418</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="4"/>
+        <v>988.02479725966396</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="5"/>
+        <v>988.05060599141382</v>
+      </c>
+      <c r="T3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="14">
+        <f>R5+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>-10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="6"/>
+        <v>960.05208192055909</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="7"/>
+        <v>29.732137494637012</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>960.00208333107275</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="8"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>960.03333275464968</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>960.00468748855599</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="5"/>
+        <v>960</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4">
+        <v>9</v>
+      </c>
+      <c r="T4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>-12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="7"/>
+        <v>988.07287180652827</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>960.00208333107275</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>1000.0979951984706</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="8"/>
+        <v>958.0005219205259</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="T5" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5">
+        <f>U4*U3</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>1000.001999998</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="7"/>
+        <v>12.165525060596439</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>41.761226035642203</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1000.0979951984706</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="8"/>
+        <v>43.965895873961216</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>1000.0079999680003</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>1000.0404991799082</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>1000.0719974081866</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="9">
+        <f>SUM(E2:E7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>-11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="6"/>
+        <v>958.06315031943484</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="7"/>
+        <v>31.953090617340916</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>958.0005219205259</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>43.965895873961216</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>958.04227464136466</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>958.00835069429331</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>958.0005219205259</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7">
+        <f>IF(R5=R6,0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f>SQRT((C$3-C8)^2+(D$3-D8)^2)</f>
+        <v>988.00202428942418</v>
+      </c>
+      <c r="I8">
+        <f>SQRT((C$4-C8)^2+(D$4-D8)^2)</f>
+        <v>960.03333275464968</v>
+      </c>
+      <c r="J8">
+        <f>SQRT((C$5-C8)^2+(D$5-D8)^2)</f>
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <f>SQRT((C$6-C8)^2+(D$6-D8)^2)</f>
+        <v>1000.0079999680003</v>
+      </c>
+      <c r="L8">
+        <f>SQRT((C$7-C8)^2+(D$7-D8)^2)</f>
+        <v>958.04227464136466</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8">
+        <f>R6-U4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f>SQRT((C$3-C9)^2+(D$3-D9)^2)</f>
+        <v>988.02479725966396</v>
+      </c>
+      <c r="I9">
+        <f>SQRT((C$4-C9)^2+(D$4-D9)^2)</f>
+        <v>960.00468748855599</v>
+      </c>
+      <c r="J9">
+        <f>SQRT((C$5-C9)^2+(D$5-D9)^2)</f>
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <f>SQRT((C$6-C9)^2+(D$6-D9)^2)</f>
+        <v>1000.0404991799082</v>
+      </c>
+      <c r="L9">
+        <f>SQRT((C$7-C9)^2+(D$7-D9)^2)</f>
+        <v>958.00835069429331</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>-10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <f>SQRT((C$2-C10)^2+(D$2-D10)^2)</f>
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <f>SQRT((C$3-C10)^2+(D$3-D10)^2)</f>
+        <v>988.05060599141382</v>
+      </c>
+      <c r="I10">
+        <f>SQRT((C$4-C10)^2+(D$4-D10)^2)</f>
+        <v>960</v>
+      </c>
+      <c r="J10">
+        <f>SQRT((C$5-C10)^2+(D$5-D10)^2)</f>
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <f>SQRT((C$6-C10)^2+(D$6-D10)^2)</f>
+        <v>1000.0719974081866</v>
+      </c>
+      <c r="L10">
+        <f>SQRT((C$7-C10)^2+(D$7-D10)^2)</f>
+        <v>958.0005219205259</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <f>L35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <f>M36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <f>N37</f>
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <f>O38</f>
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="1">
+        <v>6</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1">
+        <v>5</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <f>P39</f>
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <f>Q40</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>$L$22</f>
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <f>$M$22</f>
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <f>$N$22</f>
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <f>$O$22</f>
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <f>$P$22</f>
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <f>$Q$22</f>
+        <v>6</v>
+      </c>
+      <c r="S24" s="13">
+        <f>L22</f>
+        <v>6</v>
+      </c>
+      <c r="T24">
+        <f>$L$22</f>
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ref="U24:Y24" si="9">$L$22</f>
+        <v>6</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <f>R41</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25:L29" si="10">$L$22</f>
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25:M29" si="11">$M$22</f>
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N29" si="12">$N$22</f>
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25:O29" si="13">$O$22</f>
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P29" si="14">$P$22</f>
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25:Q29" si="15">$Q$22</f>
+        <v>6</v>
+      </c>
+      <c r="S25" s="13">
+        <f>M22</f>
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <f>$M$22</f>
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ref="U25:Y25" si="16">$M$22</f>
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <f>$M$22</f>
+        <v>2</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <f>S42</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="S26" s="13">
+        <f>N22</f>
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <f>$N$22</f>
+        <v>5</v>
+      </c>
+      <c r="U26">
+        <f t="shared" ref="U26:Y26" si="17">$N$22</f>
+        <v>5</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <f>T43</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="S27" s="13">
+        <f>O22</f>
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <f>$O$22</f>
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <f t="shared" ref="U27:Y27" si="18">$O$22</f>
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="L28">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="S28" s="13">
+        <f>P22</f>
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <f>$P$22</f>
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <f t="shared" ref="U28:Y28" si="19">$P$22</f>
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="S29" s="13">
+        <f>Q22</f>
+        <v>6</v>
+      </c>
+      <c r="T29">
+        <f>$Q$22</f>
+        <v>6</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ref="U29:Y29" si="20">$Q$22</f>
+        <v>6</v>
+      </c>
+      <c r="V29">
+        <f>$Q$22</f>
+        <v>6</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="10">
+        <f>L36</f>
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <f>M35</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <f>SUM(A30,B30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="10">
+        <f t="shared" ref="A31:A34" si="21">L37</f>
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <f>N35</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" ref="C31:C44" si="22">SUM(A31,B31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <f>O35</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f>R33*R$6</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f>S33*R$6</f>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f>T33*R$6</f>
+        <v>3</v>
+      </c>
+      <c r="U32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <f>P35</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <f>SUM(R33:T33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <f>Q35</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="11">
+        <f>M37</f>
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <f>N36</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1</v>
+      </c>
+      <c r="U35" s="3">
+        <f t="shared" ref="U35:U43" si="23">SUM(L35:T35)</f>
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <f>$R$5*(1-L35)-T24+L24-1</f>
+        <v>5</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" ref="Y35:AC40" si="24">$R$5*(1-M35)-U24+M24-1</f>
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="11">
+        <f t="shared" ref="A36:A38" si="25">M38</f>
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <f>O36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <f t="shared" ref="X36:X40" si="26">$R$5*(1-L36)-T25+L25-1</f>
+        <v>9</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="11">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f>P36</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <f>Q36</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>1</v>
+      </c>
+      <c r="U38" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="3">
+        <f>N38</f>
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <f>O37</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="3">
+        <f t="shared" ref="A40:A41" si="27">N39</f>
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <f>P37</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1</v>
+      </c>
+      <c r="U40" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <f>Q37</f>
+        <v>1</v>
+      </c>
+      <c r="C41" s="6">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="12">
+        <f>O39</f>
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <f>P38</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="12">
+        <f>O40</f>
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <f>Q38</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <f>P40</f>
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <f>Q39</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" ref="L44:O44" si="28">SUM(L35:L43)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <f>SUM(P35:P43)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <f>SUM(Q35:Q43)</f>
+        <v>1</v>
+      </c>
+      <c r="R44" s="4">
+        <f t="shared" ref="R44:T44" si="29">SUM(R35:R43)</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="4">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q46" t="s">
+        <v>76</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <f>R35+$E2-1</f>
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f t="shared" ref="W46:X51" si="30">S35+$E2-1</f>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <f t="shared" ref="V47:V51" si="31">R36+$E3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <f>T38+$E5-1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="K50" t="s">
+        <v>59</v>
+      </c>
+      <c r="L50">
+        <f>1 - E2</f>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f>1 - E3</f>
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <f>1 - E4</f>
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <f>1 - E5</f>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f>1-E6</f>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f>1-E7</f>
+        <v>1</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="R51" s="1">
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q52" t="s">
+        <v>75</v>
+      </c>
+      <c r="R52">
+        <f>SUM(R46:R51)</f>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f t="shared" ref="S52:T52" si="32">SUM(S46:S51)</f>
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="P53" t="s">
+        <v>60</v>
+      </c>
+      <c r="R53">
+        <f>SUMPRODUCT($E$2:$E$7,R35:R40)</f>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f>SUMPRODUCT($E$2:$E$7,S35:S40)</f>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53" si="33">SUMPRODUCT($E$2:$E$7,T35:T40)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q56" t="s">
+        <v>67</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <f>$R$33+E2 -1</f>
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f>$S$33+E2-1</f>
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <f>$T$33+E2-1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="R57" s="1">
+        <v>0</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <f t="shared" ref="V57:V61" si="34">$R$33+E3 -1</f>
+        <v>-1</v>
+      </c>
+      <c r="W57">
+        <f t="shared" ref="W57:W61" si="35">$S$33+E3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <f t="shared" ref="X57:X61" si="36">$T$33+E3-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="R58" s="1">
+        <v>0</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="J59" t="s">
+        <v>39</v>
+      </c>
+      <c r="R59" s="1">
+        <v>0</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="J60">
+        <f>SUM(R35:R38)</f>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f>SUM(S35:S38)</f>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f>SUM(T35:T38)</f>
+        <v>2</v>
+      </c>
+      <c r="R60" s="1">
+        <v>0</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="R61" s="1">
+        <v>0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q62" t="s">
+        <v>68</v>
+      </c>
+      <c r="R62">
+        <f>SUM(R56:R61)</f>
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <f t="shared" ref="S62:T62" si="37">SUM(S56:S61)</f>
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94DF649-4456-4FDB-9C95-B62C99D0140C}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -7328,10 +9962,10 @@
       </c>
       <c r="R1" s="8">
         <f>SUMPRODUCT(G2:O10,L35:T43)</f>
-        <v>1014.1342524532591</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6.8284271247461898</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -7339,10 +9973,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -7356,53 +9990,53 @@
       </c>
       <c r="H2">
         <f>SQRT((C$3-C2)^2+(D$3-D2)^2)</f>
-        <v>988</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I7" si="0">SQRT((C$4-C2)^2+(D$4-D2)^2)</f>
-        <v>960.05208192055909</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J7" si="1">SQRT((C$5-C2)^2+(D$5-D2)^2)</f>
-        <v>12</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K7" si="2">SQRT((C$6-C2)^2+(D$6-D2)^2)</f>
-        <v>1000.001999998</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <f>SQRT((C$7-C2)^2+(D$7-D2)^2)</f>
-        <v>958.06315031943484</v>
+        <v>4</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M10" si="3">SQRT((C$8-C2)^2+(D$8-D2)^2)</f>
-        <v>2</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="N2">
         <f t="shared" ref="N2:N10" si="4">SQRT((C$9-C2)^2+(D$9-D2)^2)</f>
-        <v>7</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O10" si="5">SQRT((C$10-C2)^2+(D$10-D2)^2)</f>
-        <v>10</v>
+        <v>4.1231056256176606</v>
       </c>
       <c r="T2" t="s">
         <v>65</v>
       </c>
       <c r="U2">
         <f>R5-R6</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -7412,7 +10046,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G9" si="6">SQRT((C$2-C3)^2+(D$2-D3)^2)</f>
-        <v>988</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H7" si="7">SQRT((C$3-C3)^2+(D$3-D3)^2)</f>
@@ -7420,31 +10054,31 @@
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>29.732137494637012</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>988.07287180652827</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="K3">
         <f t="shared" si="2"/>
-        <v>12.165525060596439</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L7" si="8">SQRT((C$7-C3)^2+(D$7-D3)^2)</f>
-        <v>31.953090617340916</v>
+        <v>3</v>
       </c>
       <c r="M3">
         <f t="shared" si="3"/>
-        <v>988.00202428942418</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="N3">
         <f t="shared" si="4"/>
-        <v>988.02479725966396</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>988.05060599141382</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="T3" t="s">
         <v>63</v>
@@ -7454,7 +10088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -7462,10 +10096,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -7475,11 +10109,11 @@
       </c>
       <c r="G4">
         <f t="shared" si="6"/>
-        <v>960.05208192055909</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="H4">
         <f t="shared" si="7"/>
-        <v>29.732137494637012</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -7487,27 +10121,27 @@
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>960.00208333107275</v>
+        <v>2.8284271247461903</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
-        <v>41.761226035642203</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="L4">
         <f t="shared" si="8"/>
-        <v>2.2360679774997898</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="M4">
         <f t="shared" si="3"/>
-        <v>960.03333275464968</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" si="4"/>
-        <v>960.00468748855599</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>960</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
         <v>47</v>
@@ -7522,33 +10156,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="H5">
         <f t="shared" si="7"/>
-        <v>988.07287180652827</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>960.00208333107275</v>
+        <v>2.8284271247461903</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
@@ -7556,23 +10190,23 @@
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>1000.0979951984706</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f t="shared" si="8"/>
-        <v>958.0005219205259</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="M5">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="N5">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="Q5" t="s">
         <v>36</v>
@@ -7588,37 +10222,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6">
         <f t="shared" si="6"/>
-        <v>1000.001999998</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <f t="shared" si="7"/>
-        <v>12.165525060596439</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>41.761226035642203</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>1000.0979951984706</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
@@ -7626,63 +10260,63 @@
       </c>
       <c r="L6">
         <f t="shared" si="8"/>
-        <v>43.965895873961216</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>1000.0079999680003</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
-        <v>1000.0404991799082</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>1000.0719974081866</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="Q6" t="s">
         <v>35</v>
       </c>
       <c r="R6" s="9">
         <f>SUM(E2:E7)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7">
         <f t="shared" si="6"/>
-        <v>958.06315031943484</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <f t="shared" si="7"/>
-        <v>31.953090617340916</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>2.2360679774997898</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>958.0005219205259</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>43.965895873961216</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <f t="shared" si="8"/>
@@ -7690,15 +10324,15 @@
       </c>
       <c r="M7">
         <f t="shared" si="3"/>
-        <v>958.04227464136466</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
-        <v>958.00835069429331</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>958.0005219205259</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="s">
         <v>38</v>
@@ -7708,42 +10342,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>44</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
       </c>
       <c r="G8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="H8">
         <f>SQRT((C$3-C8)^2+(D$3-D8)^2)</f>
-        <v>988.00202428942418</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="I8">
         <f>SQRT((C$4-C8)^2+(D$4-D8)^2)</f>
-        <v>960.03333275464968</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <f>SQRT((C$5-C8)^2+(D$5-D8)^2)</f>
-        <v>10</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="K8">
         <f>SQRT((C$6-C8)^2+(D$6-D8)^2)</f>
-        <v>1000.0079999680003</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="L8">
         <f>SQRT((C$7-C8)^2+(D$7-D8)^2)</f>
-        <v>958.04227464136466</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
@@ -7751,60 +10385,60 @@
       </c>
       <c r="N8">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="s">
         <v>37</v>
       </c>
       <c r="R8">
         <f>R6-U4</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="C9">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
       </c>
       <c r="G9">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="H9">
         <f>SQRT((C$3-C9)^2+(D$3-D9)^2)</f>
-        <v>988.02479725966396</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="I9">
         <f>SQRT((C$4-C9)^2+(D$4-D9)^2)</f>
-        <v>960.00468748855599</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <f>SQRT((C$5-C9)^2+(D$5-D9)^2)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <f>SQRT((C$6-C9)^2+(D$6-D9)^2)</f>
-        <v>1000.0404991799082</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f>SQRT((C$7-C9)^2+(D$7-D9)^2)</f>
-        <v>958.00835069429331</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="4"/>
@@ -7812,53 +10446,53 @@
       </c>
       <c r="O9">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>46</v>
       </c>
       <c r="C10">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>46</v>
       </c>
       <c r="G10">
         <f>SQRT((C$2-C10)^2+(D$2-D10)^2)</f>
-        <v>10</v>
+        <v>4.1231056256176606</v>
       </c>
       <c r="H10">
         <f>SQRT((C$3-C10)^2+(D$3-D10)^2)</f>
-        <v>988.05060599141382</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="I10">
         <f>SQRT((C$4-C10)^2+(D$4-D10)^2)</f>
-        <v>960</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <f>SQRT((C$5-C10)^2+(D$5-D10)^2)</f>
-        <v>2</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="K10">
         <f>SQRT((C$6-C10)^2+(D$6-D10)^2)</f>
-        <v>1000.0719974081866</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="L10">
         <f>SQRT((C$7-C10)^2+(D$7-D10)^2)</f>
-        <v>958.0005219205259</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <f t="shared" si="5"/>
@@ -7868,33 +10502,87 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q11" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
       <c r="K16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f>L35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <f>M36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f>N37</f>
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <f>O38</f>
         <v>0</v>
@@ -7903,25 +10591,25 @@
         <v>20</v>
       </c>
       <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1">
         <v>6</v>
       </c>
-      <c r="M22" s="1">
-        <v>2</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>5</v>
       </c>
-      <c r="O22" s="1">
-        <v>2</v>
-      </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q22" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f>P39</f>
         <v>0</v>
@@ -7933,14 +10621,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <f>Q40</f>
         <v>0</v>
       </c>
       <c r="L24">
         <f>$L$22</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <f>$M$22</f>
@@ -7948,57 +10636,57 @@
       </c>
       <c r="N24">
         <f>$N$22</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O24">
         <f>$O$22</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P24">
         <f>$P$22</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q24">
         <f>$Q$22</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S24" s="13">
         <f>L22</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <f>$L$22</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U24">
         <f t="shared" ref="U24:Y24" si="9">$L$22</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V24">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y24">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <f>R41</f>
         <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" ref="L25:L29" si="10">$L$22</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <f t="shared" ref="M25:M29" si="11">$M$22</f>
@@ -8006,19 +10694,19 @@
       </c>
       <c r="N25">
         <f t="shared" ref="N25:N29" si="12">$N$22</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O25">
         <f t="shared" ref="O25:O29" si="13">$O$22</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P25">
         <f t="shared" ref="P25:P29" si="14">$P$22</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q25">
         <f t="shared" ref="Q25:Q29" si="15">$Q$22</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S25" s="13">
         <f>M22</f>
@@ -8049,14 +10737,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <f>S42</f>
         <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <f t="shared" si="11"/>
@@ -8064,57 +10752,57 @@
       </c>
       <c r="N26">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O26">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P26">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q26">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S26" s="13">
         <f>N22</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T26">
         <f>$N$22</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U26">
         <f t="shared" ref="U26:Y26" si="17">$N$22</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V26">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W26">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X26">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y26">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <f>T43</f>
         <v>0</v>
       </c>
       <c r="L27">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <f t="shared" si="11"/>
@@ -8122,53 +10810,53 @@
       </c>
       <c r="N27">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O27">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P27">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q27">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S27" s="13">
         <f>O22</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T27">
         <f>$O$22</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U27">
         <f t="shared" ref="U27:Y27" si="18">$O$22</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V27">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W27">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X27">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y27">
         <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="L28">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <f t="shared" si="11"/>
@@ -8176,56 +10864,56 @@
       </c>
       <c r="N28">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O28">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P28">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q28">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S28" s="13">
         <f>P22</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T28">
         <f>$P$22</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U28">
         <f t="shared" ref="U28:Y28" si="19">$P$22</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V28">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W28">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X28">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y28">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>22</v>
       </c>
       <c r="L29">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <f t="shared" si="11"/>
@@ -8233,64 +10921,68 @@
       </c>
       <c r="N29">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O29">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P29">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q29">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S29" s="13">
         <f>Q22</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T29">
         <f>$Q$22</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U29">
         <f t="shared" ref="U29:Y29" si="20">$Q$22</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <f>$Q$22</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X29">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y29">
         <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10">
         <f>L36</f>
         <v>0</v>
       </c>
       <c r="B30">
         <f>M35</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="6">
         <f>SUM(A30,B30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f>SUM(L35:Q40)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10">
         <f t="shared" ref="A31:A34" si="21">L37</f>
         <v>0</v>
@@ -8304,7 +10996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -8319,7 +11011,7 @@
       </c>
       <c r="R32">
         <f>R33*R$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S32">
         <f>S33*R$6</f>
@@ -8327,13 +11019,13 @@
       </c>
       <c r="T32">
         <f>T33*R$6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -8347,20 +11039,20 @@
         <v>0</v>
       </c>
       <c r="R33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="1">
         <v>0</v>
       </c>
       <c r="T33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <f>SUM(R33:T33)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -8407,7 +11099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11">
         <f>M37</f>
         <v>0</v>
@@ -8427,7 +11119,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="1">
         <v>0</v>
@@ -8448,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" ref="U35:U43" si="23">SUM(L35:T35)</f>
@@ -8460,26 +11152,26 @@
       </c>
       <c r="Y35">
         <f t="shared" ref="Y35:AC40" si="24">$R$5*(1-M35)-U24+M24-1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA35">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AB35">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC35">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11">
         <f t="shared" ref="A36:A38" si="25">M38</f>
         <v>0</v>
@@ -8528,7 +11220,7 @@
       </c>
       <c r="X36">
         <f t="shared" ref="X36:X40" si="26">$R$5*(1-L36)-T25+L25-1</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Y36">
         <f t="shared" si="24"/>
@@ -8536,25 +11228,25 @@
       </c>
       <c r="Z36">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA36">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB36">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AC36">
         <f t="shared" si="24"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <f>P36</f>
@@ -8562,7 +11254,7 @@
       </c>
       <c r="C37" s="6">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -8583,10 +11275,10 @@
         <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="1">
         <v>0</v>
@@ -8600,11 +11292,11 @@
       </c>
       <c r="X37">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y37">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z37">
         <f t="shared" si="24"/>
@@ -8612,18 +11304,18 @@
       </c>
       <c r="AA37">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB37">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC37">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -8652,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
         <v>0</v>
@@ -8664,7 +11356,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="3">
         <f t="shared" si="23"/>
@@ -8672,15 +11364,15 @@
       </c>
       <c r="X38">
         <f t="shared" si="26"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Y38">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z38">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA38">
         <f t="shared" si="24"/>
@@ -8688,14 +11380,14 @@
       </c>
       <c r="AB38">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC38">
         <f t="shared" si="24"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3">
         <f>N38</f>
         <v>0</v>
@@ -8715,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="1">
         <v>0</v>
@@ -8730,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="1">
         <v>0</v>
@@ -8744,19 +11436,19 @@
       </c>
       <c r="X39">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y39">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA39">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB39">
         <f t="shared" si="24"/>
@@ -8764,10 +11456,10 @@
       </c>
       <c r="AC39">
         <f t="shared" si="24"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
         <f t="shared" ref="A40:A41" si="27">N39</f>
         <v>0</v>
@@ -8793,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="1">
         <v>0</v>
@@ -8808,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="3">
         <f t="shared" si="23"/>
@@ -8820,37 +11512,37 @@
       </c>
       <c r="Y40">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z40">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA40">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB40">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC40">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="B41">
         <f>Q37</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="6">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="s">
         <v>44</v>
@@ -8887,18 +11579,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12">
         <f>O39</f>
         <v>0</v>
       </c>
       <c r="B42">
         <f>P38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
         <v>45</v>
@@ -8935,10 +11627,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="12">
         <f>O40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43">
         <f>Q38</f>
@@ -8946,7 +11638,7 @@
       </c>
       <c r="C43" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="s">
         <v>46</v>
@@ -8983,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <f>P40</f>
         <v>0</v>
@@ -9013,19 +11705,19 @@
       </c>
       <c r="O44" s="3">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="3">
         <f>SUM(P35:P43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="3">
         <f>SUM(Q35:Q43)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="4">
         <f t="shared" ref="R44:T44" si="29">SUM(R35:R43)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S44" s="4">
         <f t="shared" si="29"/>
@@ -9033,10 +11725,10 @@
       </c>
       <c r="T44" s="4">
         <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="Q46" t="s">
         <v>76</v>
       </c>
@@ -9047,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46">
         <f>R35+$E2-1</f>
@@ -9059,10 +11751,10 @@
       </c>
       <c r="X46">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="R47" s="1">
         <v>0</v>
       </c>
@@ -9085,7 +11777,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="R48" s="1">
         <v>0</v>
       </c>
@@ -9097,7 +11789,7 @@
       </c>
       <c r="V48">
         <f t="shared" si="31"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W48">
         <f t="shared" si="30"/>
@@ -9108,7 +11800,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -9119,22 +11811,22 @@
         <v>0</v>
       </c>
       <c r="T49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W49">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <f>T38+$E5-1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="K50" t="s">
         <v>59</v>
       </c>
@@ -9152,15 +11844,15 @@
       </c>
       <c r="O50">
         <f>1 - E5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50">
         <f>1-E6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <f>1-E7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="1">
         <v>0</v>
@@ -9177,14 +11869,14 @@
       </c>
       <c r="W50">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R51" s="1">
         <v>0</v>
       </c>
@@ -9196,18 +11888,18 @@
       </c>
       <c r="V51">
         <f t="shared" si="31"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W51">
         <f t="shared" si="30"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X51">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="Q52" t="s">
         <v>75</v>
       </c>
@@ -9221,10 +11913,10 @@
       </c>
       <c r="T52">
         <f t="shared" si="32"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="P53" t="s">
         <v>60</v>
       </c>
@@ -9238,25 +11930,25 @@
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="33">SUMPRODUCT($E$2:$E$7,T35:T40)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="Q56" t="s">
         <v>67</v>
       </c>
       <c r="R56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="1">
         <v>0</v>
       </c>
       <c r="T56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56">
         <f>$R$33+E2 -1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56">
         <f>$S$33+E2-1</f>
@@ -9264,10 +11956,10 @@
       </c>
       <c r="X56">
         <f>$T$33+E2-1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R57" s="1">
         <v>0</v>
       </c>
@@ -9279,7 +11971,7 @@
       </c>
       <c r="V57">
         <f t="shared" ref="V57:V61" si="34">$R$33+E3 -1</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W57">
         <f t="shared" ref="W57:W61" si="35">$S$33+E3-1</f>
@@ -9287,10 +11979,10 @@
       </c>
       <c r="X57">
         <f t="shared" ref="X57:X61" si="36">$T$33+E3-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R58" s="1">
         <v>0</v>
       </c>
@@ -9302,7 +11994,7 @@
       </c>
       <c r="V58">
         <f t="shared" si="34"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W58">
         <f t="shared" si="35"/>
@@ -9310,10 +12002,10 @@
       </c>
       <c r="X58">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="J59" t="s">
         <v>39</v>
       </c>
@@ -9324,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V59">
         <f t="shared" si="34"/>
@@ -9332,17 +12024,17 @@
       </c>
       <c r="W59">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="J60">
         <f>SUM(R35:R38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
         <f>SUM(S35:S38)</f>
@@ -9350,7 +12042,7 @@
       </c>
       <c r="L60">
         <f>SUM(T35:T38)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
         <v>0</v>
@@ -9359,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60">
         <f t="shared" si="34"/>
@@ -9367,16 +12059,16 @@
       </c>
       <c r="W60">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="1">
         <v>0</v>
@@ -9386,24 +12078,24 @@
       </c>
       <c r="V61">
         <f t="shared" si="34"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W61">
         <f t="shared" si="35"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X61">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="Q62" t="s">
         <v>68</v>
       </c>
       <c r="R62">
         <f>SUM(R56:R61)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S62">
         <f t="shared" ref="S62:T62" si="37">SUM(S56:S61)</f>
@@ -9411,7 +12103,7 @@
       </c>
       <c r="T62">
         <f t="shared" si="37"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
